--- a/Översikt TIMRÅ.xlsx
+++ b/Översikt TIMRÅ.xlsx
@@ -575,7 +575,7 @@
         <v>45924.5112037037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>45789</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>45793</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>44809</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45845.65666666667</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45723.46942129629</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>45827</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>45239</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>45924.51101851852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45761</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45785.65672453704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>45924.57364583333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>45204</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>45786</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>45082.926875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>45709.44822916666</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         <v>45797.67784722222</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>45167</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>45800</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>45924.51083333333</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>45940.38585648148</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>45895</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>45215</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>45726</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>45429</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>45569.46905092592</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>45804.59443287037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>45915.49065972222</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>45098</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>45614.38782407407</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>45937</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>45953.34493055556</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>45371</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>45229</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>45884.34447916667</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>44483.94234953704</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45604.59423611111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>45786</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>45791.59416666667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>45867</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>45812.57344907407</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>45812.6150462963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>45837.6565625</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>45866</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44854</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>45593.65664351852</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>45978</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>45442</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>45329</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>45736.34435185185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>45785.65743055556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>45786</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>45791.4071875</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>45791.57351851852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>45797</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>44306</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44719</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>44757.94475694445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>45183</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44860</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>45548</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>45889.55267361111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>45894.48993055556</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45827.3472800926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>45614.38584490741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>45939.37962962963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>45952.69873842593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45866</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>45967.59415509259</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45622.69840277778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>45762.595</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>45191</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>45561</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>45553.34428240741</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>45106</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>44830</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>45142</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45764.38619212963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>45777.36506944444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>45783.40657407408</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>45642</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>45785.40699074074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>45786</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>44316</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>45349</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44371</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>45131</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45702.61481481481</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>45826.63604166666</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>44371</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>45835.55256944444</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>45614.38832175926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>45837.65688657408</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>45853.34451388889</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>45953.55266203704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>44966</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>45859</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>45243</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>45614.38761574074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>45751.34609953704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>45624.67935185185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>45442</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>45656</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>46059</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>45250</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>45579.59434027778</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>44641</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>45785.34451388889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10764,7 +10764,7 @@
         <v>45785.65763888889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>45789.71935185185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>45356</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44641</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>45791.40748842592</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>45790</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>45791.57354166666</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>45791.4278587963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>45797.67813657408</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45302</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44447.3393287037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44447.94371527778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44357</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44315</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44517</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>44557</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>44833</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>44557</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44721</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>44447</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>44813</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>44874.48275462963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>44868</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>44357</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>44789.92700231481</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>44782</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44557</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44524</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>44607</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>44522.92057870371</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>44491</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>44363</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>44357.3500462963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>44371</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>44371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>44874.46287037037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>44417</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>44453</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44852.95229166667</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44371</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44879.9560300926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44511</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44830</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44237</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>44433.94230324074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44440</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>44712</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>44849</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>44846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44616</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44804</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44799</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44854</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44887.9284375</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44845.95347222222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44349</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44349</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44357</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>44860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>44833</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>44337.98226851852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         <v>44642</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>44642</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>44469</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>44725.94373842593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44348</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>44415.93429398148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44790</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44641</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44518</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44364</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44316</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>45751.34613425926</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>45610.69864583333</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15510,7 +15510,7 @@
         <v>45187</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>44578</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45261</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45614.38722222222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>44728</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45474</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>45125</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>44629.71497685185</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>45642</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16043,7 +16043,7 @@
         <v>45351</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         <v>45629.35313657407</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16157,7 +16157,7 @@
         <v>44469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>45058</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>45058</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>44608</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>44845</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>45636.44822916666</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>45617</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>45645.59753472222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>45637</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>44909</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>45002</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>45579.40659722222</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>45735</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16923,7 +16923,7 @@
         <v>44615</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>45029</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         <v>44889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         <v>44378</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17151,7 +17151,7 @@
         <v>44874.92969907408</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17208,7 +17208,7 @@
         <v>45884.55336805555</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>45886.51091435185</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>45798.42756944444</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>45429</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44671.926875</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>45511</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>45434</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>45545.61614583333</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44897</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>44566</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44851.953125</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17865,7 +17865,7 @@
         <v>45460</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>45805.6364699074</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17984,7 +17984,7 @@
         <v>45246</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         <v>45257</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>45625</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18160,7 +18160,7 @@
         <v>45394.95059027777</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>45821.39233796296</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45888.67773148148</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44977.934375</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44494</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>45439</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>45811.6778125</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>45580</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45518.74296296296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>45567.38202546296</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>45544</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>45894.65702546296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>45895</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>45821</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>45813</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>45572.55322916667</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>45453</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>45897.34467592592</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45244</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44526</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45819.67739583334</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>45818.34482638889</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>45819.34549768519</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45898.44824074074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45898.42746527777</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>45898.44826388889</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>45903.65372685185</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>45903.61538194444</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19836,7 +19836,7 @@
         <v>45903.645</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
         <v>45058.68621527778</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>45824.71908564815</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>45904.37346064814</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20069,7 +20069,7 @@
         <v>45824.6578125</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20126,7 +20126,7 @@
         <v>44334</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>45889</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>45822.42765046296</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>45822.42746527777</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>44872</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>45907.49268518519</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>45092</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>45804</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>45386.94486111111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>45394.94991898148</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>45827.49060185185</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>45915.46614583334</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>45915.49049768518</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>44558</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>45915.46914351852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>45764.3653587963</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         <v>44826</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>44826.94804398148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21207,7 +21207,7 @@
         <v>45614.38810185185</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>45614.38815972222</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>45916.36511574074</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>45916.34513888889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21455,7 +21455,7 @@
         <v>45916.55245370371</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>45916.40740740741</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>45617.61572916667</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45188</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21703,7 +21703,7 @@
         <v>45916.40726851852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>45048</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>45831.67759259259</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>45334</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>45918.34467592592</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>45918.36494212963</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>45831.66094907407</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>45922.34416666667</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>45833.42782407408</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>45924.42755787037</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45833.44155092593</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>45833.43015046296</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>45833.44674768519</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>45755.40678240741</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>45833.42950231482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>45833.41020833333</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>45201</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45924.42788194444</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>45520</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>45671.53855324074</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>45929.48690972223</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44467</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>45107</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>45927.34444444445</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23116,7 +23116,7 @@
         <v>45596.36559027778</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>45930</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>45834.47052083333</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>45930</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>45930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>45930</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>45838.36493055556</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>44732</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23592,7 +23592,7 @@
         <v>45839.63586805556</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>45614.38622685185</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>45614.38694444444</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>45837.65679398148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>45244.96715277778</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>45839.71916666667</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>45922</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>45764.38584490741</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>45837.71907407408</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>45837.69824074074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>45932.5109837963</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24269,7 +24269,7 @@
         <v>45716</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24326,7 +24326,7 @@
         <v>44798.92681712963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>44721</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>45840.40680555555</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>45936.46949074074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44676</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>45937.42913194445</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>45840.40699074074</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>45937.64086805555</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         <v>45939.38305555555</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         <v>45938.49212962963</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         <v>45840.48953703704</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24978,7 +24978,7 @@
         <v>45840.63600694444</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>45579.59424768519</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>45937.64094907408</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25164,7 +25164,7 @@
         <v>45939.49052083334</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25226,7 +25226,7 @@
         <v>44350</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25283,7 +25283,7 @@
         <v>45939.61747685185</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25340,7 +25340,7 @@
         <v>45842.57388888889</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25397,7 +25397,7 @@
         <v>45943.55063657407</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>45845.65732638889</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>45943.61526620371</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45210</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45940.34512731482</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25697,7 +25697,7 @@
         <v>45671</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>45671.53853009259</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25811,7 +25811,7 @@
         <v>45846.34501157407</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45847.42768518518</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>45622</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>45455</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>45455</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>45847.42783564814</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>45849.46824074074</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>45589.48760416666</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>45951.34575231482</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>45833</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>45951.34542824074</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45190</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45950.59730324074</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45855.67744212963</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26624,7 +26624,7 @@
         <v>45950.62047453703</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         <v>45859.61546296296</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>45859.59447916667</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>45951.36527777778</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26857,7 +26857,7 @@
         <v>45798</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         <v>45859</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26971,7 +26971,7 @@
         <v>45859.61543981481</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>45951.65715277778</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>45951.67846064815</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>45951.34561342592</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>45951.34582175926</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>45860.34459490741</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>45860.34461805555</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>45800.70986111111</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>45950.64591435185</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>45953.55248842593</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>45952.71978009259</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27613,7 +27613,7 @@
         <v>45952.67783564814</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27670,7 +27670,7 @@
         <v>45952.69902777778</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27732,7 +27732,7 @@
         <v>45952.72013888889</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27794,7 +27794,7 @@
         <v>45953.44878472222</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27851,7 +27851,7 @@
         <v>45952.34482638889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>45952.67809027778</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27965,7 +27965,7 @@
         <v>45953.34508101852</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>45953</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>45695.71903935185</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>45861</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>45957.51130787037</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>44952</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>45954.5725</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>45953.80394675926</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28436,7 +28436,7 @@
         <v>45182.94908564815</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>45874</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28560,7 +28560,7 @@
         <v>44889</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>45877.58502314815</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>45735.44883101852</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28741,7 +28741,7 @@
         <v>45960.34491898148</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44250</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44615</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>45579</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>45880.57357638889</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>45965.36548611111</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29098,7 +29098,7 @@
         <v>45880.55261574074</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29155,7 +29155,7 @@
         <v>45895</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>45967.61501157407</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>45762.61503472222</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>44522.92043981481</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29388,7 +29388,7 @@
         <v>45867</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29470,7 +29470,7 @@
         <v>45971.68888888889</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>45882</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>45883.46928240741</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>45590.61517361111</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>45972.34539351852</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29760,7 +29760,7 @@
         <v>45972.57354166666</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29822,7 +29822,7 @@
         <v>45058.68923611111</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>45058</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29936,7 +29936,7 @@
         <v>45972.34515046296</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29998,7 +29998,7 @@
         <v>45187.9603587963</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>45884.55347222222</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>45624.67949074074</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>45541</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30241,7 +30241,7 @@
         <v>44846</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30303,7 +30303,7 @@
         <v>45884</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30360,7 +30360,7 @@
         <v>45975.65680555555</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         <v>45978.68487268518</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>45979.34629629629</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>46019.92979166667</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>46019.94665509259</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>44818.9474537037</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44529.94496527778</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>45981.57255787037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>45981.56496527778</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>45166</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45985.46954861111</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>46027.72983796296</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>45982.39275462963</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>46027.72607638889</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>45985.42018518518</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>45985.44314814815</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>45985.47010416666</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>45624.67894675926</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31416,7 +31416,7 @@
         <v>45985.47813657407</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         <v>45987.5112037037</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>46024</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>46029.82388888889</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>45187</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31706,7 +31706,7 @@
         <v>46029.83471064815</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31763,7 +31763,7 @@
         <v>46029.83921296296</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>46029.84521990741</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>46029.61679398148</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31939,7 +31939,7 @@
         <v>45580</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31996,7 +31996,7 @@
         <v>46029.61538194444</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>46024</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>45743.55283564814</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32177,7 +32177,7 @@
         <v>45733.60231481482</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32234,7 +32234,7 @@
         <v>45510</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>46029</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32348,7 +32348,7 @@
         <v>44901</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32405,7 +32405,7 @@
         <v>44732</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32462,7 +32462,7 @@
         <v>45163</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32519,7 +32519,7 @@
         <v>45982</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44655</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>46030.55357638889</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44531</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44952</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>46024</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32861,7 +32861,7 @@
         <v>46024</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32918,7 +32918,7 @@
         <v>45558</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32975,7 +32975,7 @@
         <v>46024</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33032,7 +33032,7 @@
         <v>45915</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33089,7 +33089,7 @@
         <v>46034</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33146,7 +33146,7 @@
         <v>45469</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33208,7 +33208,7 @@
         <v>46024</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33265,7 +33265,7 @@
         <v>46024</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33322,7 +33322,7 @@
         <v>45614.38604166666</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45614.3875462963</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33446,7 +33446,7 @@
         <v>46035</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33503,7 +33503,7 @@
         <v>44725</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33565,7 +33565,7 @@
         <v>45723.34417824074</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33627,7 +33627,7 @@
         <v>46037</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33684,7 +33684,7 @@
         <v>46035</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33741,7 +33741,7 @@
         <v>46034</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33798,7 +33798,7 @@
         <v>45629.61498842593</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33860,7 +33860,7 @@
         <v>46036.61560185185</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33917,7 +33917,7 @@
         <v>46023</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33974,7 +33974,7 @@
         <v>45953.4488425926</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34031,7 +34031,7 @@
         <v>46037.56555555556</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34088,7 +34088,7 @@
         <v>46035</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34145,7 +34145,7 @@
         <v>45635.71917824074</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34207,7 +34207,7 @@
         <v>46035</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34264,7 +34264,7 @@
         <v>45208</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45624.67921296296</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34388,7 +34388,7 @@
         <v>46041</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34445,7 +34445,7 @@
         <v>46041.43841435185</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34502,7 +34502,7 @@
         <v>46041.44077546296</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34559,7 +34559,7 @@
         <v>46041.40667824074</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34616,7 +34616,7 @@
         <v>46041.45148148148</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34673,7 +34673,7 @@
         <v>44880.95756944444</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34735,7 +34735,7 @@
         <v>46041.44505787037</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34792,7 +34792,7 @@
         <v>45092</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34849,7 +34849,7 @@
         <v>45231</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34906,7 +34906,7 @@
         <v>44393</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34963,7 +34963,7 @@
         <v>46036</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35020,7 +35020,7 @@
         <v>45743</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35077,7 +35077,7 @@
         <v>46001.38648148148</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35139,7 +35139,7 @@
         <v>46001.38677083333</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>45586.51078703703</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35263,7 +35263,7 @@
         <v>46000.34418981482</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35325,7 +35325,7 @@
         <v>45622</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35382,7 +35382,7 @@
         <v>45182</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>45621.4275462963</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         <v>45188.92491898148</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35563,7 +35563,7 @@
         <v>46041.45078703704</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35620,7 +35620,7 @@
         <v>46024</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35677,7 +35677,7 @@
         <v>46006.66931712963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35734,7 +35734,7 @@
         <v>46006.57925925926</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35791,7 +35791,7 @@
         <v>46033</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35848,7 +35848,7 @@
         <v>46014</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>46049.61578703704</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35972,7 +35972,7 @@
         <v>46007.45199074074</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36029,7 +36029,7 @@
         <v>45058</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36086,7 +36086,7 @@
         <v>46049.61560185185</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36148,7 +36148,7 @@
         <v>46049.61516203704</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36210,7 +36210,7 @@
         <v>46049.61542824074</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36272,7 +36272,7 @@
         <v>44250</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36329,7 +36329,7 @@
         <v>44250</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         <v>45555</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36443,7 +36443,7 @@
         <v>45112.94381944444</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36505,7 +36505,7 @@
         <v>46051.57375</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36562,7 +36562,7 @@
         <v>45182</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36624,7 +36624,7 @@
         <v>46035</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36681,7 +36681,7 @@
         <v>46050.34486111111</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>46055.71923611111</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36800,7 +36800,7 @@
         <v>46050.34482638889</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>46013.49018518518</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>46013.49020833334</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>46052.49025462963</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>46054</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37090,7 +37090,7 @@
         <v>46013.44822916666</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37147,7 +37147,7 @@
         <v>46013.51077546296</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>46013</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37261,7 +37261,7 @@
         <v>46052.34430555555</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37323,7 +37323,7 @@
         <v>46050.34480324074</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37380,7 +37380,7 @@
         <v>46056.51106481482</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37437,7 +37437,7 @@
         <v>45918.34475694445</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37499,7 +37499,7 @@
         <v>44396</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37556,7 +37556,7 @@
         <v>46057.59460648148</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37613,7 +37613,7 @@
         <v>46057.59456018519</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37670,7 +37670,7 @@
         <v>45646.53160879629</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37732,7 +37732,7 @@
         <v>46056</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37789,7 +37789,7 @@
         <v>45441</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
         <v>44557</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37903,7 +37903,7 @@
         <v>46057.59458333333</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37960,7 +37960,7 @@
         <v>46056</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>46056</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38074,7 +38074,7 @@
         <v>45593.53160879629</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38136,7 +38136,7 @@
         <v>46056</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38193,7 +38193,7 @@
         <v>44893.9297337963</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38250,7 +38250,7 @@
         <v>46051</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38312,7 +38312,7 @@
         <v>45435.94592592592</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38374,7 +38374,7 @@
         <v>46056</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38431,7 +38431,7 @@
         <v>46056</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>46044</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38545,7 +38545,7 @@
         <v>46048</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38602,7 +38602,7 @@
         <v>46044</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38659,7 +38659,7 @@
         <v>45548.41377314815</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38716,7 +38716,7 @@
         <v>46044</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38773,7 +38773,7 @@
         <v>46048</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38830,7 +38830,7 @@
         <v>46048</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38887,7 +38887,7 @@
         <v>45032</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38949,7 +38949,7 @@
         <v>46048</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39006,7 +39006,7 @@
         <v>45437</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39068,7 +39068,7 @@
         <v>44575.92912037037</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39125,7 +39125,7 @@
         <v>45188</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         <v>45622</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39244,7 +39244,7 @@
         <v>45058</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39301,7 +39301,7 @@
         <v>45406</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39363,7 +39363,7 @@
         <v>45593.38608796296</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39425,7 +39425,7 @@
         <v>45446</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39482,7 +39482,7 @@
         <v>45043</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39544,7 +39544,7 @@
         <v>45620.95182870371</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>45195</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39658,7 +39658,7 @@
         <v>45189</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39715,7 +39715,7 @@
         <v>45562</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39777,7 +39777,7 @@
         <v>45175.65100694444</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39834,7 +39834,7 @@
         <v>45618.43747685185</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39896,7 +39896,7 @@
         <v>45625</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39953,7 +39953,7 @@
         <v>45117</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40010,7 +40010,7 @@
         <v>45579.51072916666</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40072,7 +40072,7 @@
         <v>45761.59958333334</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40129,7 +40129,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40186,7 +40186,7 @@
         <v>45609.34423611111</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40268,7 +40268,7 @@
         <v>45435</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40330,7 +40330,7 @@
         <v>45446</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40387,7 +40387,7 @@
         <v>45386.94517361111</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>45103</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>45579.46957175926</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40568,7 +40568,7 @@
         <v>44385.43622685185</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40625,7 +40625,7 @@
         <v>45579.46971064815</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40687,7 +40687,7 @@
         <v>44952</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         <v>45649.61491898148</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40806,7 +40806,7 @@
         <v>44530</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40863,7 +40863,7 @@
         <v>44531.44428240741</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>45079</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40982,7 +40982,7 @@
         <v>44616</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41039,7 +41039,7 @@
         <v>45614.3884837963</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41101,7 +41101,7 @@
         <v>45495</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41163,7 +41163,7 @@
         <v>45407</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41225,7 +41225,7 @@
         <v>45344</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41282,7 +41282,7 @@
         <v>44630.92299768519</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41339,7 +41339,7 @@
         <v>45042</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41396,7 +41396,7 @@
         <v>45579.4483912037</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41458,7 +41458,7 @@
         <v>45252</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41515,7 +41515,7 @@
         <v>44869</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41572,7 +41572,7 @@
         <v>44869</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41629,7 +41629,7 @@
         <v>44886</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41686,7 +41686,7 @@
         <v>45656.63576388889</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41748,7 +41748,7 @@
         <v>44420</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41805,7 +41805,7 @@
         <v>45303</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41867,7 +41867,7 @@
         <v>45450</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41924,7 +41924,7 @@
         <v>45370</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         <v>44557.43879629629</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>45671.57582175926</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44839</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>45148</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>45495</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>45737.5741550926</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>45250</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42395,7 +42395,7 @@
         <v>45104</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42452,7 +42452,7 @@
         <v>45411</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44936.92666666667</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44595.92520833333</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>45642</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42700,7 +42700,7 @@
         <v>44872</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42757,7 +42757,7 @@
         <v>44924</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42814,7 +42814,7 @@
         <v>45672</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42871,7 +42871,7 @@
         <v>45595</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42933,7 +42933,7 @@
         <v>45749</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>45671.51324074074</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43047,7 +43047,7 @@
         <v>44888.92847222222</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>44530</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43161,7 +43161,7 @@
         <v>45614.38864583334</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43223,7 +43223,7 @@
         <v>45614.38878472222</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>44952</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45209</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>45569.40684027778</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43461,7 +43461,7 @@
         <v>45119</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43518,7 +43518,7 @@
         <v>45099.95390046296</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43580,7 +43580,7 @@
         <v>44895.92809027778</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43637,7 +43637,7 @@
         <v>45560.57388888889</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43699,7 +43699,7 @@
         <v>45769.59504629629</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43761,7 +43761,7 @@
         <v>45569.34474537037</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43823,7 +43823,7 @@
         <v>45762.57328703703</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43880,7 +43880,7 @@
         <v>45622</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43937,7 +43937,7 @@
         <v>45163.92715277777</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43994,7 +43994,7 @@
         <v>45498</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44051,7 +44051,7 @@
         <v>45033</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44113,7 +44113,7 @@
         <v>45761</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44175,7 +44175,7 @@
         <v>45779.69825231482</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44237,7 +44237,7 @@
         <v>45782.59474537037</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         <v>45783.34482638889</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44361,7 +44361,7 @@
         <v>45783.63148148148</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44418,7 +44418,7 @@
         <v>45783.63800925926</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44475,7 +44475,7 @@
         <v>45783.34505787037</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44537,7 +44537,7 @@
         <v>45784.69828703703</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44599,7 +44599,7 @@
         <v>45784.55241898148</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44661,7 +44661,7 @@
         <v>45785.67780092593</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44723,7 +44723,7 @@
         <v>45789.71915509259</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44780,7 +44780,7 @@
         <v>44721.92605324074</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44837,7 +44837,7 @@
         <v>45789.71949074074</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44894,7 +44894,7 @@
         <v>45789.71967592592</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44951,7 +44951,7 @@
         <v>45446</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45008,7 +45008,7 @@
         <v>45572</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45065,7 +45065,7 @@
         <v>45789</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45127,7 +45127,7 @@
         <v>45786.51099537037</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45189,7 +45189,7 @@
         <v>45791.65733796296</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45251,7 +45251,7 @@
         <v>45790.34469907408</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45308,7 +45308,7 @@
         <v>44915</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45365,7 +45365,7 @@
         <v>45791.42796296296</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45442,7 +45442,7 @@
         <v>45790.65737268519</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45504,7 +45504,7 @@
         <v>45672</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45561,7 +45561,7 @@
         <v>45793.61495370371</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45623,7 +45623,7 @@
         <v>44603.92236111111</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45680,7 +45680,7 @@
         <v>45258</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45737,7 +45737,7 @@
         <v>44384</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45794,7 +45794,7 @@
         <v>45796.365</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45856,7 +45856,7 @@
         <v>45548</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45913,7 +45913,7 @@
         <v>45602</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45970,7 +45970,7 @@
         <v>45699.43229166666</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>

--- a/Översikt TIMRÅ.xlsx
+++ b/Översikt TIMRÅ.xlsx
@@ -575,7 +575,7 @@
         <v>45924.5112037037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>45789</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>45793</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>44809</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45845.65666666667</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45723.46942129629</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>45827</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>45239</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>45924.51101851852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45761</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45785.65672453704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>45924.57364583333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>45204</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>45786</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>45082.926875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>45709.44822916666</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         <v>45797.67784722222</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>45167</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>45800</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>45924.51083333333</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>45940.38585648148</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>45895</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>45215</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>45726</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>45429</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>45569.46905092592</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>45804.59443287037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>45915.49065972222</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>45098</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>45614.38782407407</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>45937</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>45953.34493055556</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>45371</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>45229</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>45884.34447916667</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>44483.94234953704</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45604.59423611111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>45786</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>45791.59416666667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>45867</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>45812.57344907407</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>45812.6150462963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>45837.6565625</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>45866</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44854</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>45593.65664351852</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>45978</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>45442</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>45329</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>45736.34435185185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>45785.65743055556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>45786</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>45791.4071875</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>45791.57351851852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>45797</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>44306</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44719</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>44757.94475694445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>45183</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44860</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>45548</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>45889.55267361111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>45894.48993055556</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45827.3472800926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>45614.38584490741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>45939.37962962963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>45952.69873842593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45866</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>45967.59415509259</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45622.69840277778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>45762.595</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>45191</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>45561</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>45553.34428240741</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>45106</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>44830</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>45142</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45764.38619212963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>45777.36506944444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>45783.40657407408</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>45642</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>45785.40699074074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>45786</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>44316</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>45349</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44371</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>45131</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45702.61481481481</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>45826.63604166666</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>44371</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>45835.55256944444</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>45614.38832175926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>45837.65688657408</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>45853.34451388889</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>45953.55266203704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>44966</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>45859</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>45243</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>45614.38761574074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>45751.34609953704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>45624.67935185185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>45442</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>45656</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>46059</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>45250</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>45579.59434027778</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>44641</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>45785.34451388889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10764,7 +10764,7 @@
         <v>45785.65763888889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>45789.71935185185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>45356</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44641</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>45791.40748842592</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>45790</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>45791.57354166666</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>45791.4278587963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>45797.67813657408</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45302</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44447.3393287037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44447.94371527778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44357</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44315</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44517</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>44557</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>44833</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>44557</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44721</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>44447</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>44813</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>44874.48275462963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>44868</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>44357</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>44789.92700231481</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>44782</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44557</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44524</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>44607</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>44522.92057870371</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>44491</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>44363</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>44357.3500462963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>44371</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>44371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>44874.46287037037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>44417</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>44453</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44852.95229166667</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44371</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44879.9560300926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44511</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44830</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44237</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>44433.94230324074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44440</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>44712</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>44849</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>44846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44616</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44804</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44799</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44854</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44887.9284375</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44845.95347222222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44349</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44349</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44357</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>44860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>44833</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>44337.98226851852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         <v>44642</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>44642</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>44469</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>44725.94373842593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44348</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>44415.93429398148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44790</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44641</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44518</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44364</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44316</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>45751.34613425926</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>45610.69864583333</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15510,7 +15510,7 @@
         <v>45187</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>44578</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45261</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45614.38722222222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>44728</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45474</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>45125</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>44629.71497685185</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>45642</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16043,7 +16043,7 @@
         <v>45351</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         <v>45629.35313657407</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16157,7 +16157,7 @@
         <v>44469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>45058</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>45058</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>44608</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>44845</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>45636.44822916666</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>45617</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>45645.59753472222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>45637</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>44909</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>45002</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>45579.40659722222</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>45735</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16923,7 +16923,7 @@
         <v>44615</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>45029</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         <v>44889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         <v>44378</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17151,7 +17151,7 @@
         <v>44874.92969907408</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17208,7 +17208,7 @@
         <v>45884.55336805555</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>45886.51091435185</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>45798.42756944444</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>45429</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44671.926875</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>45511</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>45434</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>45545.61614583333</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44897</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>44566</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44851.953125</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17865,7 +17865,7 @@
         <v>45460</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>45805.6364699074</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17984,7 +17984,7 @@
         <v>45246</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         <v>45257</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>45625</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18160,7 +18160,7 @@
         <v>45394.95059027777</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>45821.39233796296</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45888.67773148148</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44977.934375</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44494</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>45439</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>45811.6778125</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>45580</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45518.74296296296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>45567.38202546296</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>45544</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>45894.65702546296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>45895</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>45821</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>45813</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>45572.55322916667</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>45453</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>45897.34467592592</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45244</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44526</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45819.67739583334</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>45818.34482638889</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>45819.34549768519</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45898.44824074074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45898.42746527777</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>45898.44826388889</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>45903.65372685185</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>45903.61538194444</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19836,7 +19836,7 @@
         <v>45903.645</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
         <v>45058.68621527778</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>45824.71908564815</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>45904.37346064814</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20069,7 +20069,7 @@
         <v>45824.6578125</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20126,7 +20126,7 @@
         <v>44334</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>45889</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>45822.42765046296</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>45822.42746527777</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>44872</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>45907.49268518519</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>45092</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>45804</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>45386.94486111111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>45394.94991898148</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>45827.49060185185</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>45915.46614583334</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>45915.49049768518</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>44558</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>45915.46914351852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>45764.3653587963</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         <v>44826</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>44826.94804398148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21207,7 +21207,7 @@
         <v>45614.38810185185</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>45614.38815972222</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>45916.36511574074</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>45916.34513888889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21455,7 +21455,7 @@
         <v>45916.55245370371</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>45916.40740740741</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>45617.61572916667</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45188</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21703,7 +21703,7 @@
         <v>45916.40726851852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>45048</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>45831.67759259259</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>45334</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>45918.34467592592</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>45918.36494212963</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>45831.66094907407</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>45922.34416666667</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>45833.42782407408</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>45924.42755787037</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45833.44155092593</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>45833.43015046296</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>45833.44674768519</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>45755.40678240741</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>45833.42950231482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>45833.41020833333</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>45201</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45924.42788194444</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>45520</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>45671.53855324074</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>45929.48690972223</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44467</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>45107</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>45927.34444444445</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23116,7 +23116,7 @@
         <v>45596.36559027778</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>45930</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>45834.47052083333</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>45930</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>45930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>45930</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>45838.36493055556</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>44732</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23592,7 +23592,7 @@
         <v>45839.63586805556</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>45614.38622685185</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>45614.38694444444</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>45837.65679398148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>45244.96715277778</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>45839.71916666667</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>45922</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>45764.38584490741</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>45837.71907407408</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>45837.69824074074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>45932.5109837963</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24269,7 +24269,7 @@
         <v>45716</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24326,7 +24326,7 @@
         <v>44798.92681712963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>44721</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>45840.40680555555</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>45936.46949074074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44676</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>45937.42913194445</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>45840.40699074074</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>45937.64086805555</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         <v>45939.38305555555</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         <v>45938.49212962963</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         <v>45840.48953703704</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24978,7 +24978,7 @@
         <v>45840.63600694444</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>45579.59424768519</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>45937.64094907408</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25164,7 +25164,7 @@
         <v>45939.49052083334</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25226,7 +25226,7 @@
         <v>44350</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25283,7 +25283,7 @@
         <v>45939.61747685185</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25340,7 +25340,7 @@
         <v>45842.57388888889</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25397,7 +25397,7 @@
         <v>45943.55063657407</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>45845.65732638889</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>45943.61526620371</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45210</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45940.34512731482</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25697,7 +25697,7 @@
         <v>45671</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>45671.53853009259</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25811,7 +25811,7 @@
         <v>45846.34501157407</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45847.42768518518</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>45622</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>45455</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>45455</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>45847.42783564814</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>45849.46824074074</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>45589.48760416666</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>45951.34575231482</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>45833</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>45951.34542824074</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45190</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45950.59730324074</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45855.67744212963</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26624,7 +26624,7 @@
         <v>45950.62047453703</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         <v>45859.61546296296</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>45859.59447916667</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>45951.36527777778</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26857,7 +26857,7 @@
         <v>45798</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         <v>45859</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26971,7 +26971,7 @@
         <v>45859.61543981481</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>45951.65715277778</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>45951.67846064815</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>45951.34561342592</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>45951.34582175926</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>45860.34459490741</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>45860.34461805555</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>45800.70986111111</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>45950.64591435185</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>45953.55248842593</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>45952.71978009259</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27613,7 +27613,7 @@
         <v>45952.67783564814</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27670,7 +27670,7 @@
         <v>45952.69902777778</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27732,7 +27732,7 @@
         <v>45952.72013888889</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27794,7 +27794,7 @@
         <v>45953.44878472222</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27851,7 +27851,7 @@
         <v>45952.34482638889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>45952.67809027778</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27965,7 +27965,7 @@
         <v>45953.34508101852</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>45953</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>45695.71903935185</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>45861</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>45957.51130787037</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>44952</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>45954.5725</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>45953.80394675926</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28436,7 +28436,7 @@
         <v>45182.94908564815</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>45874</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28560,7 +28560,7 @@
         <v>44889</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>45877.58502314815</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>45735.44883101852</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28741,7 +28741,7 @@
         <v>45960.34491898148</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44250</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44615</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>45579</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>45880.57357638889</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>45965.36548611111</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29098,7 +29098,7 @@
         <v>45880.55261574074</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29155,7 +29155,7 @@
         <v>45895</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>45967.61501157407</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>45762.61503472222</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>44522.92043981481</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29388,7 +29388,7 @@
         <v>45867</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29470,7 +29470,7 @@
         <v>45971.68888888889</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>45882</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>45883.46928240741</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>45590.61517361111</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>45972.34539351852</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29760,7 +29760,7 @@
         <v>45972.57354166666</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29822,7 +29822,7 @@
         <v>45058.68923611111</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>45058</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29936,7 +29936,7 @@
         <v>45972.34515046296</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29998,7 +29998,7 @@
         <v>45187.9603587963</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>45884.55347222222</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>45624.67949074074</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>45541</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30241,7 +30241,7 @@
         <v>44846</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30303,7 +30303,7 @@
         <v>45884</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30360,7 +30360,7 @@
         <v>45975.65680555555</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         <v>45978.68487268518</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>45979.34629629629</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>46019.92979166667</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>46019.94665509259</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>44818.9474537037</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44529.94496527778</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>45981.57255787037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>45981.56496527778</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>45166</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45985.46954861111</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>46027.72983796296</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>45982.39275462963</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>46027.72607638889</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>45985.42018518518</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>45985.44314814815</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>45985.47010416666</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>45624.67894675926</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31416,7 +31416,7 @@
         <v>45985.47813657407</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         <v>45987.5112037037</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>46024</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>46029.82388888889</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>45187</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31706,7 +31706,7 @@
         <v>46029.83471064815</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31763,7 +31763,7 @@
         <v>46029.83921296296</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>46029.84521990741</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>46029.61679398148</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31939,7 +31939,7 @@
         <v>45580</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31996,7 +31996,7 @@
         <v>46029.61538194444</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>46024</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>45743.55283564814</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32177,7 +32177,7 @@
         <v>45733.60231481482</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32234,7 +32234,7 @@
         <v>45510</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>46029</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32348,7 +32348,7 @@
         <v>44901</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32405,7 +32405,7 @@
         <v>44732</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32462,7 +32462,7 @@
         <v>45163</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32519,7 +32519,7 @@
         <v>45982</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44655</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>46030.55357638889</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>44531</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>44952</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>46024</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32861,7 +32861,7 @@
         <v>46024</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32918,7 +32918,7 @@
         <v>45558</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32975,7 +32975,7 @@
         <v>46024</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33032,7 +33032,7 @@
         <v>45915</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33089,7 +33089,7 @@
         <v>46034</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33146,7 +33146,7 @@
         <v>45469</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33208,7 +33208,7 @@
         <v>46024</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33265,7 +33265,7 @@
         <v>46024</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33322,7 +33322,7 @@
         <v>45614.38604166666</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45614.3875462963</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33446,7 +33446,7 @@
         <v>46035</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33503,7 +33503,7 @@
         <v>44725</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33565,7 +33565,7 @@
         <v>45723.34417824074</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33627,7 +33627,7 @@
         <v>46037</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33684,7 +33684,7 @@
         <v>46035</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33741,7 +33741,7 @@
         <v>46034</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33798,7 +33798,7 @@
         <v>45629.61498842593</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33860,7 +33860,7 @@
         <v>46036.61560185185</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33917,7 +33917,7 @@
         <v>46023</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33974,7 +33974,7 @@
         <v>45953.4488425926</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34031,7 +34031,7 @@
         <v>46037.56555555556</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34088,7 +34088,7 @@
         <v>46035</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34145,7 +34145,7 @@
         <v>45635.71917824074</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34207,7 +34207,7 @@
         <v>46035</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34264,7 +34264,7 @@
         <v>45208</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45624.67921296296</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34388,7 +34388,7 @@
         <v>46041</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34445,7 +34445,7 @@
         <v>46041.43841435185</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34502,7 +34502,7 @@
         <v>46041.44077546296</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34559,7 +34559,7 @@
         <v>46041.40667824074</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34616,7 +34616,7 @@
         <v>46041.45148148148</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34673,7 +34673,7 @@
         <v>44880.95756944444</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34735,7 +34735,7 @@
         <v>46041.44505787037</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34792,7 +34792,7 @@
         <v>45092</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34849,7 +34849,7 @@
         <v>45231</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34906,7 +34906,7 @@
         <v>44393</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34963,7 +34963,7 @@
         <v>46036</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35020,7 +35020,7 @@
         <v>45743</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35077,7 +35077,7 @@
         <v>46001.38648148148</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35139,7 +35139,7 @@
         <v>46001.38677083333</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>45586.51078703703</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35263,7 +35263,7 @@
         <v>46000.34418981482</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35325,7 +35325,7 @@
         <v>45622</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35382,7 +35382,7 @@
         <v>45182</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>45621.4275462963</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         <v>45188.92491898148</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35563,7 +35563,7 @@
         <v>46041.45078703704</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35620,7 +35620,7 @@
         <v>46024</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35677,7 +35677,7 @@
         <v>46006.66931712963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35734,7 +35734,7 @@
         <v>46006.57925925926</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35791,7 +35791,7 @@
         <v>46033</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35848,7 +35848,7 @@
         <v>46014</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>46049.61578703704</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35972,7 +35972,7 @@
         <v>46007.45199074074</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36029,7 +36029,7 @@
         <v>45058</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36086,7 +36086,7 @@
         <v>46049.61560185185</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36148,7 +36148,7 @@
         <v>46049.61516203704</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36210,7 +36210,7 @@
         <v>46049.61542824074</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36272,7 +36272,7 @@
         <v>44250</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36329,7 +36329,7 @@
         <v>44250</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         <v>45555</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36443,7 +36443,7 @@
         <v>45112.94381944444</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36505,7 +36505,7 @@
         <v>46051.57375</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36562,7 +36562,7 @@
         <v>45182</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36624,7 +36624,7 @@
         <v>46035</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36681,7 +36681,7 @@
         <v>46050.34486111111</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>46055.71923611111</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36800,7 +36800,7 @@
         <v>46050.34482638889</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>46013.49018518518</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>46013.49020833334</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>46052.49025462963</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>46054</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37090,7 +37090,7 @@
         <v>46013.44822916666</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37147,7 +37147,7 @@
         <v>46013.51077546296</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>46013</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37261,7 +37261,7 @@
         <v>46052.34430555555</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37323,7 +37323,7 @@
         <v>46050.34480324074</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37380,7 +37380,7 @@
         <v>46056.51106481482</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37437,7 +37437,7 @@
         <v>45918.34475694445</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37499,7 +37499,7 @@
         <v>44396</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37556,7 +37556,7 @@
         <v>46057.59460648148</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37613,7 +37613,7 @@
         <v>46057.59456018519</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37670,7 +37670,7 @@
         <v>45646.53160879629</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37732,7 +37732,7 @@
         <v>46056</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37789,7 +37789,7 @@
         <v>45441</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
         <v>44557</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37903,7 +37903,7 @@
         <v>46057.59458333333</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37960,7 +37960,7 @@
         <v>46056</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>46056</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38074,7 +38074,7 @@
         <v>45593.53160879629</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38136,7 +38136,7 @@
         <v>46056</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38193,7 +38193,7 @@
         <v>44893.9297337963</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38250,7 +38250,7 @@
         <v>46051</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38312,7 +38312,7 @@
         <v>45435.94592592592</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38374,7 +38374,7 @@
         <v>46056</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38431,7 +38431,7 @@
         <v>46056</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>46044</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38545,7 +38545,7 @@
         <v>46048</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38602,7 +38602,7 @@
         <v>46044</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38659,7 +38659,7 @@
         <v>45548.41377314815</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38716,7 +38716,7 @@
         <v>46044</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38773,7 +38773,7 @@
         <v>46048</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38830,7 +38830,7 @@
         <v>46048</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38887,7 +38887,7 @@
         <v>45032</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38949,7 +38949,7 @@
         <v>46048</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39006,7 +39006,7 @@
         <v>45437</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39068,7 +39068,7 @@
         <v>44575.92912037037</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39125,7 +39125,7 @@
         <v>45188</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         <v>45622</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39244,7 +39244,7 @@
         <v>45058</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39301,7 +39301,7 @@
         <v>45406</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39363,7 +39363,7 @@
         <v>45593.38608796296</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39425,7 +39425,7 @@
         <v>45446</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39482,7 +39482,7 @@
         <v>45043</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39544,7 +39544,7 @@
         <v>45620.95182870371</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>45195</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39658,7 +39658,7 @@
         <v>45189</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39715,7 +39715,7 @@
         <v>45562</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39777,7 +39777,7 @@
         <v>45175.65100694444</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39834,7 +39834,7 @@
         <v>45618.43747685185</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39896,7 +39896,7 @@
         <v>45625</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39953,7 +39953,7 @@
         <v>45117</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40010,7 +40010,7 @@
         <v>45579.51072916666</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40072,7 +40072,7 @@
         <v>45761.59958333334</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40129,7 +40129,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40186,7 +40186,7 @@
         <v>45609.34423611111</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40268,7 +40268,7 @@
         <v>45435</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40330,7 +40330,7 @@
         <v>45446</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40387,7 +40387,7 @@
         <v>45386.94517361111</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
         <v>45103</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40506,7 +40506,7 @@
         <v>45579.46957175926</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40568,7 +40568,7 @@
         <v>44385.43622685185</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40625,7 +40625,7 @@
         <v>45579.46971064815</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40687,7 +40687,7 @@
         <v>44952</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         <v>45649.61491898148</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40806,7 +40806,7 @@
         <v>44530</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40863,7 +40863,7 @@
         <v>44531.44428240741</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>45079</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40982,7 +40982,7 @@
         <v>44616</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41039,7 +41039,7 @@
         <v>45614.3884837963</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41101,7 +41101,7 @@
         <v>45495</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41163,7 +41163,7 @@
         <v>45407</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41225,7 +41225,7 @@
         <v>45344</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41282,7 +41282,7 @@
         <v>44630.92299768519</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41339,7 +41339,7 @@
         <v>45042</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41396,7 +41396,7 @@
         <v>45579.4483912037</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41458,7 +41458,7 @@
         <v>45252</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41515,7 +41515,7 @@
         <v>44869</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41572,7 +41572,7 @@
         <v>44869</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41629,7 +41629,7 @@
         <v>44886</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41686,7 +41686,7 @@
         <v>45656.63576388889</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41748,7 +41748,7 @@
         <v>44420</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41805,7 +41805,7 @@
         <v>45303</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41867,7 +41867,7 @@
         <v>45450</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41924,7 +41924,7 @@
         <v>45370</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         <v>44557.43879629629</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>45671.57582175926</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>44839</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>45148</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>45495</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>45737.5741550926</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>45250</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42395,7 +42395,7 @@
         <v>45104</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42452,7 +42452,7 @@
         <v>45411</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44936.92666666667</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44595.92520833333</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>45642</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42700,7 +42700,7 @@
         <v>44872</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42757,7 +42757,7 @@
         <v>44924</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42814,7 +42814,7 @@
         <v>45672</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42871,7 +42871,7 @@
         <v>45595</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42933,7 +42933,7 @@
         <v>45749</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>45671.51324074074</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43047,7 +43047,7 @@
         <v>44888.92847222222</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>44530</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43161,7 +43161,7 @@
         <v>45614.38864583334</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43223,7 +43223,7 @@
         <v>45614.38878472222</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>44952</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45209</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>45569.40684027778</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43461,7 +43461,7 @@
         <v>45119</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43518,7 +43518,7 @@
         <v>45099.95390046296</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43580,7 +43580,7 @@
         <v>44895.92809027778</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43637,7 +43637,7 @@
         <v>45560.57388888889</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43699,7 +43699,7 @@
         <v>45769.59504629629</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43761,7 +43761,7 @@
         <v>45569.34474537037</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43823,7 +43823,7 @@
         <v>45762.57328703703</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43880,7 +43880,7 @@
         <v>45622</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43937,7 +43937,7 @@
         <v>45163.92715277777</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43994,7 +43994,7 @@
         <v>45498</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44051,7 +44051,7 @@
         <v>45033</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44113,7 +44113,7 @@
         <v>45761</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44175,7 +44175,7 @@
         <v>45779.69825231482</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44237,7 +44237,7 @@
         <v>45782.59474537037</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         <v>45783.34482638889</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44361,7 +44361,7 @@
         <v>45783.63148148148</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44418,7 +44418,7 @@
         <v>45783.63800925926</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44475,7 +44475,7 @@
         <v>45783.34505787037</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44537,7 +44537,7 @@
         <v>45784.69828703703</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44599,7 +44599,7 @@
         <v>45784.55241898148</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44661,7 +44661,7 @@
         <v>45785.67780092593</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44723,7 +44723,7 @@
         <v>45789.71915509259</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44780,7 +44780,7 @@
         <v>44721.92605324074</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44837,7 +44837,7 @@
         <v>45789.71949074074</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44894,7 +44894,7 @@
         <v>45789.71967592592</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44951,7 +44951,7 @@
         <v>45446</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45008,7 +45008,7 @@
         <v>45572</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45065,7 +45065,7 @@
         <v>45789</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45127,7 +45127,7 @@
         <v>45786.51099537037</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45189,7 +45189,7 @@
         <v>45791.65733796296</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45251,7 +45251,7 @@
         <v>45790.34469907408</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45308,7 +45308,7 @@
         <v>44915</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45365,7 +45365,7 @@
         <v>45791.42796296296</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45442,7 +45442,7 @@
         <v>45790.65737268519</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45504,7 +45504,7 @@
         <v>45672</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45561,7 +45561,7 @@
         <v>45793.61495370371</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45623,7 +45623,7 @@
         <v>44603.92236111111</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45680,7 +45680,7 @@
         <v>45258</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45737,7 +45737,7 @@
         <v>44384</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45794,7 +45794,7 @@
         <v>45796.365</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45856,7 +45856,7 @@
         <v>45548</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45913,7 +45913,7 @@
         <v>45602</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45970,7 +45970,7 @@
         <v>45699.43229166666</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>

--- a/Översikt TIMRÅ.xlsx
+++ b/Översikt TIMRÅ.xlsx
@@ -575,7 +575,7 @@
         <v>45924</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45789</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -798,7 +798,7 @@
         <v>45793</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         <v>44809</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45845.65666666667</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>45723.46942129629</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45827</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>45239</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>46065</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>45761</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>45924.51101851852</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>45785.65672453704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45924.51083333333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>45791.57351851852</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>45924.57364583333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45204</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>45786</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>45082.926875</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>45709.44822916666</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>45797.67784722222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>45167</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>45940.38585648148</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>45371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>45215</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>45895</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>45726</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>45429</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>45800</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45569.46905092592</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>45098</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>45915.49065972222</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>45614.38782407407</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>45937</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         <v>45884.34447916667</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>45229</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         <v>45953.34493055556</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>44483.94234953704</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45604.59423611111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>45786</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>45791.59416666667</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>45804.59443287037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44371</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>45867</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>45837.6565625</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44371</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>45866</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>44854</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>45593.65664351852</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>45442</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>45978</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>45743</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>45329</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>45736.34435185185</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>45785.65743055556</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>45786</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>45791.4071875</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>45797</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>45812.57344907407</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>45812.6150462963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>44306</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>44719</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44757.94475694445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>45183</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44860</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>45548</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>45889.55267361111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>45827.3472800926</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>45894.48993055556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>45614.38584490741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>45866</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>45939.37962962963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>45952.69873842593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>45622.69840277778</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>45762.595</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>45191</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>45967.59415509259</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>45561</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>45553.34428240741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>45106</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44830</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>45142</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>45764.38619212963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>45777.36506944444</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>45783.40657407408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>45642</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>45785.40699074074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>45786</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>44316</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>45349</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>45702.61481481481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>45826.63604166666</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>45835.55256944444</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>45837.65688657408</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>45853.34451388889</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>45614.38832175926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>45859</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>44966</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>45953.55266203704</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>45243</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>45614.38761574074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>45751.34609953704</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>45624.67935185185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>45442</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>45656</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>46059</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45250</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>46059</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>45579.59434027778</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44641</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>45785.34451388889</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>45785.65763888889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>45789.71935185185</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>45356</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44641</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>45791.40748842592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>45790</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45791.57354166666</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11580,7 +11580,7 @@
         <v>45791.4278587963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45797.67813657408</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11760,7 +11760,7 @@
         <v>45302</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>45131</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11930,7 +11930,7 @@
         <v>44447.3393287037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11987,7 +11987,7 @@
         <v>44447.94371527778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>44357</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>44315</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44517</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44557</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44833</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44557</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44721</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44447</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44813</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44874.48275462963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44357</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44868</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44789.92700231481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44782</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44524</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>44557</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44607</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>44491</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44522.92057870371</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44363</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44357.3500462963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44371</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44417</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44371</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13432,7 +13432,7 @@
         <v>44874.46287037037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13489,7 +13489,7 @@
         <v>44852.95229166667</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         <v>44453</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>44371</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13670,7 +13670,7 @@
         <v>44798</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13727,7 +13727,7 @@
         <v>44879.9560300926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44511</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44830</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13908,7 +13908,7 @@
         <v>44433.94230324074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13965,7 +13965,7 @@
         <v>44440</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>44712</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>44849</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>44846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44616</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44804</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44799</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>44854</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44845.95347222222</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44887.9284375</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44349</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>44349</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44357</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44860</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44833</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44337.98226851852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44642</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44642</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44725.94373842593</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>44415.93429398148</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>44348</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44790</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44641</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44518</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44364</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44316</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45751.34613425926</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45187</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>44578</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>45610.69864583333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45614.38722222222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>45474</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45261</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>45125</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44629.71497685185</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>45351</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>45642</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>45058</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>45058</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44608</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>45629.35313657407</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44469</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>45617</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>44845</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>45636.44822916666</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>45002</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>45637</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>44909</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>45579.40659722222</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44615</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>45735</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>45029</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>44378</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>44889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>45545.61614583333</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44897</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>45434</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44671.926875</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44566</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44851.953125</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>45460</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>45246</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>45257</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>45625</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>45645.59753472222</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44977.934375</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>45439</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>45394.95059027777</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44494</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>45567.38202546296</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>45544</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18318,7 +18318,7 @@
         <v>45518.74296296296</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18375,7 +18375,7 @@
         <v>45884.55336805555</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>45886.51091435185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>45572.55322916667</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
         <v>45819.67739583334</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18618,7 +18618,7 @@
         <v>45818.34482638889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>45453</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>45819.34549768519</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>45244</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44526</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>45821.39233796296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>45824.71908564815</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>45824.6578125</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>45822.42765046296</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>45888.67773148148</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>45822.42746527777</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>45058.68621527778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>45827.49060185185</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>44334</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>44872</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>45894.65702546296</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>45092</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>45895</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>45821</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>45386.94486111111</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>45394.94991898148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>45831.67759259259</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>45831.66094907407</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>45813</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>45897.34467592592</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>45833.44155092593</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20165,7 +20165,7 @@
         <v>45833.43015046296</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20222,7 +20222,7 @@
         <v>45833.44674768519</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20279,7 +20279,7 @@
         <v>44558</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20336,7 +20336,7 @@
         <v>45764.3653587963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>45833.41020833333</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20455,7 +20455,7 @@
         <v>44826</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>44826.94804398148</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>45614.38810185185</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20636,7 +20636,7 @@
         <v>45614.38815972222</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20698,7 +20698,7 @@
         <v>45898.44824074074</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>45898.42746527777</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20837,7 +20837,7 @@
         <v>45898.44826388889</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20894,7 +20894,7 @@
         <v>45617.61572916667</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>45188</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>45048</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45834.47052083333</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         <v>45903.65372685185</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         <v>45903.61538194444</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>45903.645</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45334</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>45838.36493055556</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>45839.63586805556</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21499,7 +21499,7 @@
         <v>45837.65679398148</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45839.71916666667</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>45904.37346064814</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>45889</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>45837.71907407408</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>45837.69824074074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21866,7 +21866,7 @@
         <v>45907.49268518519</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21923,7 +21923,7 @@
         <v>45840.40680555555</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21980,7 +21980,7 @@
         <v>45755.40678240741</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>45840.40699074074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22094,7 +22094,7 @@
         <v>45201</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22151,7 +22151,7 @@
         <v>45840.48953703704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22208,7 +22208,7 @@
         <v>45840.63600694444</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>45520</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45842.57388888889</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45671.53855324074</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45845.65732638889</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>45915.46614583334</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>45915.49049768518</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>44467</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45915.46914351852</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>45846.34501157407</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>45107</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>45847.42768518518</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>45847.42783564814</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>45596.36559027778</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>45916.40740740741</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>45849.46824074074</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23160,7 +23160,7 @@
         <v>45916.40726851852</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>45833</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44732</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>45614.38622685185</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>45614.38694444444</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>45918.34467592592</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>45244.96715277778</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>45918.36494212963</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>45764.38584490741</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>45855.67744212963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23775,7 +23775,7 @@
         <v>45859.61546296296</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23832,7 +23832,7 @@
         <v>45859.59447916667</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23889,7 +23889,7 @@
         <v>45798</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23946,7 +23946,7 @@
         <v>45716</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24003,7 +24003,7 @@
         <v>45859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>45859.61543981481</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24117,7 +24117,7 @@
         <v>44798.92681712963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24174,7 +24174,7 @@
         <v>45922.34416666667</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24231,7 +24231,7 @@
         <v>45860.34459490741</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24288,7 +24288,7 @@
         <v>45860.34461805555</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>45800.70986111111</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44721</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>45924.42755787037</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>44676</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>45924.42788194444</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>45579.59424768519</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>45861</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>44350</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>45929.48690972223</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24878,7 +24878,7 @@
         <v>45927.34444444445</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>45210</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>45930</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>45671</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>45930</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>45930</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>45930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>45671.53853009259</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>45922</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45622</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>45455</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>45455</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>45877.58502314815</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>45932.5109837963</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25686,7 +25686,7 @@
         <v>45880.57357638889</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>45589.48760416666</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>45880.55261574074</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>45190</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25919,7 +25919,7 @@
         <v>45936.46949074074</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>45867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26063,7 +26063,7 @@
         <v>45882</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26120,7 +26120,7 @@
         <v>45883.46928240741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26177,7 +26177,7 @@
         <v>45939.38305555555</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26234,7 +26234,7 @@
         <v>45938.49212962963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45939.49052083334</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45884.55347222222</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>45695.71903935185</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>45939.61747685185</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>45943.55063657407</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         <v>44952</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>45940.34512731482</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26715,7 +26715,7 @@
         <v>45884</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26772,7 +26772,7 @@
         <v>45182.94908564815</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26834,7 +26834,7 @@
         <v>44889</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26896,7 +26896,7 @@
         <v>45951.34575231482</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26953,7 +26953,7 @@
         <v>45951.34542824074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27010,7 +27010,7 @@
         <v>45950.59730324074</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>45950.62047453703</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27129,7 +27129,7 @@
         <v>45951.36527777778</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         <v>45735.44883101852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         <v>44250</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27305,7 +27305,7 @@
         <v>45951.65715277778</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27362,7 +27362,7 @@
         <v>45951.67846064815</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>45951.34561342592</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>45951.34582175926</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>45950.64591435185</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         <v>44615</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>45953.55248842593</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45952.71978009259</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>45579</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>45952.67783564814</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45952.69902777778</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27957,7 +27957,7 @@
         <v>45952.72013888889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45953.44878472222</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45952.34482638889</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45952.67809027778</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45953.34508101852</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45953</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45957.51130787037</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45762.61503472222</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44522.92043981481</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45590.61517361111</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45954.5725</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45953.80394675926</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>45058.68923611111</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>45058</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>45187.9603587963</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>45960.34491898148</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>45624.67949074074</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45541</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>44846</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>45965.36548611111</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29132,7 +29132,7 @@
         <v>45895</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>44818.9474537037</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>44529.94496527778</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29303,7 +29303,7 @@
         <v>45166</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29360,7 +29360,7 @@
         <v>45971.68888888889</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29417,7 +29417,7 @@
         <v>45624.67894675926</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>45187</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>45580</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>45975.65680555555</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29660,7 +29660,7 @@
         <v>45978.68487268518</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29722,7 +29722,7 @@
         <v>45979.34629629629</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29784,7 +29784,7 @@
         <v>45743.55283564814</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>45733.60231481482</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>45510</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29960,7 +29960,7 @@
         <v>44901</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30017,7 +30017,7 @@
         <v>44732</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30074,7 +30074,7 @@
         <v>45981.57255787037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30131,7 +30131,7 @@
         <v>45981.56496527778</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30188,7 +30188,7 @@
         <v>45163</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30245,7 +30245,7 @@
         <v>44655</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30302,7 +30302,7 @@
         <v>44531</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45982.39275462963</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>44952</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45558</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>45985.42018518518</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45985.44314814815</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30644,7 +30644,7 @@
         <v>45985.47813657407</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30701,7 +30701,7 @@
         <v>45987.5112037037</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>45469</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>45614.38604166666</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30882,7 +30882,7 @@
         <v>45614.3875462963</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30944,7 +30944,7 @@
         <v>44725</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31006,7 +31006,7 @@
         <v>45723.34417824074</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31068,7 +31068,7 @@
         <v>45982</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31125,7 +31125,7 @@
         <v>45629.61498842593</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31187,7 +31187,7 @@
         <v>45635.71917824074</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31249,7 +31249,7 @@
         <v>45915</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31306,7 +31306,7 @@
         <v>46034</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31363,7 +31363,7 @@
         <v>45208</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         <v>45624.67921296296</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31487,7 +31487,7 @@
         <v>46037</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31544,7 +31544,7 @@
         <v>46035</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>46034</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>46036.61560185185</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>45953.4488425926</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31772,7 +31772,7 @@
         <v>46037.56555555556</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>46035</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31886,7 +31886,7 @@
         <v>44880.95756944444</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>45092</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>45231</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>44393</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>46041</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>46041.43841435185</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32233,7 +32233,7 @@
         <v>46041.44077546296</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32290,7 +32290,7 @@
         <v>46041.40667824074</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         <v>46041.44505787037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32404,7 +32404,7 @@
         <v>45586.51078703703</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         <v>46036</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32523,7 +32523,7 @@
         <v>45622</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32580,7 +32580,7 @@
         <v>45182</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>45621.4275462963</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>45188.92491898148</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32761,7 +32761,7 @@
         <v>46001.38648148148</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>46001.38677083333</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32885,7 +32885,7 @@
         <v>46000.34418981482</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32947,7 +32947,7 @@
         <v>45058</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33004,7 +33004,7 @@
         <v>44250</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33061,7 +33061,7 @@
         <v>44250</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33118,7 +33118,7 @@
         <v>45555</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33175,7 +33175,7 @@
         <v>45112.94381944444</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         <v>46006.66931712963</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33294,7 +33294,7 @@
         <v>46006.57925925926</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33351,7 +33351,7 @@
         <v>46033</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33408,7 +33408,7 @@
         <v>46014</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>46049.61578703704</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33532,7 +33532,7 @@
         <v>46007.45199074074</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33589,7 +33589,7 @@
         <v>46049.61560185185</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>45182</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33713,7 +33713,7 @@
         <v>46049.61516203704</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>46049.61542824074</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>46051.57375</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33894,7 +33894,7 @@
         <v>46055.71923611111</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>46013.49018518518</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>46013.49020833334</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>44396</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34127,7 +34127,7 @@
         <v>45646.53160879629</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>46052.49025462963</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34251,7 +34251,7 @@
         <v>45441</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34308,7 +34308,7 @@
         <v>44557</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34365,7 +34365,7 @@
         <v>46054</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34422,7 +34422,7 @@
         <v>45593.53160879629</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>46013.44822916666</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>46013.51077546296</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44893.9297337963</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>46013</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>46052.34430555555</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34774,7 +34774,7 @@
         <v>45435.94592592592</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34836,7 +34836,7 @@
         <v>45918.34475694445</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34898,7 +34898,7 @@
         <v>46057.59460648148</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34955,7 +34955,7 @@
         <v>46057.59456018519</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35012,7 +35012,7 @@
         <v>46057.59458333333</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>46056</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>46056</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>46056</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35240,7 +35240,7 @@
         <v>46051</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35302,7 +35302,7 @@
         <v>45548.41377314815</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35359,7 +35359,7 @@
         <v>46056</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35416,7 +35416,7 @@
         <v>46056</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>45032</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35535,7 +35535,7 @@
         <v>45437</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35597,7 +35597,7 @@
         <v>46044</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35654,7 +35654,7 @@
         <v>46048</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35711,7 +35711,7 @@
         <v>46048</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35768,7 +35768,7 @@
         <v>46048</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35825,7 +35825,7 @@
         <v>45916.36511574074</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35887,7 +35887,7 @@
         <v>44575.92912037037</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35944,7 +35944,7 @@
         <v>45188</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36006,7 +36006,7 @@
         <v>46019.92979166667</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36063,7 +36063,7 @@
         <v>45937.64086805555</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36125,7 +36125,7 @@
         <v>45972.34515046296</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36187,7 +36187,7 @@
         <v>45967.61501157407</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36249,7 +36249,7 @@
         <v>45804</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>45622</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>46059</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>45943.61526620371</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36487,7 +36487,7 @@
         <v>45972.57354166666</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         <v>45985.46954861111</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36611,7 +36611,7 @@
         <v>45916.55245370371</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36673,7 +36673,7 @@
         <v>45058</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36730,7 +36730,7 @@
         <v>45874</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36792,7 +36792,7 @@
         <v>45833.42950231482</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36849,7 +36849,7 @@
         <v>45406</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36911,7 +36911,7 @@
         <v>45937.64094907408</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36973,7 +36973,7 @@
         <v>45972.34539351852</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37035,7 +37035,7 @@
         <v>45593.38608796296</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37097,7 +37097,7 @@
         <v>45446</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37154,7 +37154,7 @@
         <v>45937.42913194445</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37216,7 +37216,7 @@
         <v>45985.47010416666</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>45043</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>45833.42782407408</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37402,7 +37402,7 @@
         <v>46019.94665509259</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         <v>45916.34513888889</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37521,7 +37521,7 @@
         <v>45620.95182870371</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37578,7 +37578,7 @@
         <v>46065.51604166667</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37635,7 +37635,7 @@
         <v>45195</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37692,7 +37692,7 @@
         <v>45189</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37749,7 +37749,7 @@
         <v>46056</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37806,7 +37806,7 @@
         <v>46023</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37863,7 +37863,7 @@
         <v>46041</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37920,7 +37920,7 @@
         <v>45562</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37982,7 +37982,7 @@
         <v>45175.65100694444</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38039,7 +38039,7 @@
         <v>46024</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38096,7 +38096,7 @@
         <v>46065</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38153,7 +38153,7 @@
         <v>46024</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38210,7 +38210,7 @@
         <v>46024</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38267,7 +38267,7 @@
         <v>46066.33487268518</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38324,7 +38324,7 @@
         <v>45618.43747685185</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         <v>46066.35460648148</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38443,7 +38443,7 @@
         <v>46066</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38500,7 +38500,7 @@
         <v>46066.35483796296</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38557,7 +38557,7 @@
         <v>46027.72983796296</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38614,7 +38614,7 @@
         <v>46066.33319444444</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38671,7 +38671,7 @@
         <v>46066.63505787037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38728,7 +38728,7 @@
         <v>46024</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38785,7 +38785,7 @@
         <v>45625</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38842,7 +38842,7 @@
         <v>45117</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         <v>45579.51072916666</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38961,7 +38961,7 @@
         <v>46024</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39018,7 +39018,7 @@
         <v>46024</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39075,7 +39075,7 @@
         <v>46044</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39132,7 +39132,7 @@
         <v>46044</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39189,7 +39189,7 @@
         <v>46027.72607638889</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39246,7 +39246,7 @@
         <v>46066.62140046297</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39303,7 +39303,7 @@
         <v>46065</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39360,7 +39360,7 @@
         <v>46024</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39417,7 +39417,7 @@
         <v>46024</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39474,7 +39474,7 @@
         <v>45761.59958333334</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39531,7 +39531,7 @@
         <v>46056</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39588,7 +39588,7 @@
         <v>44869</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39645,7 +39645,7 @@
         <v>46070.37175925926</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39702,7 +39702,7 @@
         <v>46070.5996875</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39759,7 +39759,7 @@
         <v>45609.34423611111</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>45435</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39903,7 +39903,7 @@
         <v>46035</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39960,7 +39960,7 @@
         <v>46035</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>46029</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40074,7 +40074,7 @@
         <v>46035</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40131,7 +40131,7 @@
         <v>46029.61538194444</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40193,7 +40193,7 @@
         <v>45446</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40250,7 +40250,7 @@
         <v>46072</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40307,7 +40307,7 @@
         <v>46072.36611111111</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40364,7 +40364,7 @@
         <v>45386.94517361111</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40426,7 +40426,7 @@
         <v>46041</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         <v>46029</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40545,7 +40545,7 @@
         <v>46050</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40602,7 +40602,7 @@
         <v>46050</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40659,7 +40659,7 @@
         <v>45103</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40716,7 +40716,7 @@
         <v>46072.36609953704</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40773,7 +40773,7 @@
         <v>46030.55357638889</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40830,7 +40830,7 @@
         <v>46072</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40887,7 +40887,7 @@
         <v>46072</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40944,7 +40944,7 @@
         <v>46029.83921296296</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41001,7 +41001,7 @@
         <v>46029.82388888889</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41058,7 +41058,7 @@
         <v>46029.83471064815</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41115,7 +41115,7 @@
         <v>46029.84521990741</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41172,7 +41172,7 @@
         <v>46072</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41229,7 +41229,7 @@
         <v>46072</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41286,7 +41286,7 @@
         <v>46072</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41343,7 +41343,7 @@
         <v>46072</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41400,7 +41400,7 @@
         <v>46072</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>45579.46957175926</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>44385.43622685185</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>46050</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>45579.46971064815</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41695,7 +41695,7 @@
         <v>46059</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41752,7 +41752,7 @@
         <v>46072</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>46048</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41866,7 +41866,7 @@
         <v>44952</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         <v>45649.61491898148</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41985,7 +41985,7 @@
         <v>44530</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42042,7 +42042,7 @@
         <v>44531.44428240741</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42099,7 +42099,7 @@
         <v>45079</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42161,7 +42161,7 @@
         <v>44616</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45614.3884837963</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42280,7 +42280,7 @@
         <v>45495</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42342,7 +42342,7 @@
         <v>45407</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42404,7 +42404,7 @@
         <v>45344</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42461,7 +42461,7 @@
         <v>44630.92299768519</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42518,7 +42518,7 @@
         <v>45042</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42575,7 +42575,7 @@
         <v>45579.4483912037</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42637,7 +42637,7 @@
         <v>45252</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42694,7 +42694,7 @@
         <v>44869</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42751,7 +42751,7 @@
         <v>44869</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42808,7 +42808,7 @@
         <v>44886</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42865,7 +42865,7 @@
         <v>45656.63576388889</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42927,7 +42927,7 @@
         <v>44420</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42984,7 +42984,7 @@
         <v>45303</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43046,7 +43046,7 @@
         <v>45450</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43103,7 +43103,7 @@
         <v>45370</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43165,7 +43165,7 @@
         <v>44557.43879629629</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43222,7 +43222,7 @@
         <v>45671.57582175926</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43279,7 +43279,7 @@
         <v>44839</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43341,7 +43341,7 @@
         <v>45148</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43398,7 +43398,7 @@
         <v>45495</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43455,7 +43455,7 @@
         <v>45737.5741550926</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43517,7 +43517,7 @@
         <v>45250</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43574,7 +43574,7 @@
         <v>45104</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43631,7 +43631,7 @@
         <v>45411</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43688,7 +43688,7 @@
         <v>44936.92666666667</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43745,7 +43745,7 @@
         <v>44595.92520833333</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43802,7 +43802,7 @@
         <v>45642</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43879,7 +43879,7 @@
         <v>44872</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43936,7 +43936,7 @@
         <v>44924</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43993,7 +43993,7 @@
         <v>45672</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44050,7 +44050,7 @@
         <v>45595</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44112,7 +44112,7 @@
         <v>45749</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44169,7 +44169,7 @@
         <v>45671.51324074074</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         <v>44888.92847222222</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44283,7 +44283,7 @@
         <v>44530</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44340,7 +44340,7 @@
         <v>45614.38864583334</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44402,7 +44402,7 @@
         <v>45614.38878472222</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44464,7 +44464,7 @@
         <v>44952</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44521,7 +44521,7 @@
         <v>45209</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44578,7 +44578,7 @@
         <v>45569.40684027778</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44640,7 +44640,7 @@
         <v>45119</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44697,7 +44697,7 @@
         <v>45099.95390046296</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44759,7 +44759,7 @@
         <v>44895.92809027778</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44816,7 +44816,7 @@
         <v>45560.57388888889</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44878,7 +44878,7 @@
         <v>45769.59504629629</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44940,7 +44940,7 @@
         <v>45569.34474537037</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45002,7 +45002,7 @@
         <v>45762.57328703703</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45059,7 +45059,7 @@
         <v>45622</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45116,7 +45116,7 @@
         <v>45163.92715277777</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45173,7 +45173,7 @@
         <v>45498</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45230,7 +45230,7 @@
         <v>45033</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45292,7 +45292,7 @@
         <v>45761</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45354,7 +45354,7 @@
         <v>45779.69825231482</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45416,7 +45416,7 @@
         <v>45782.59474537037</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45478,7 +45478,7 @@
         <v>45783.34482638889</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45540,7 +45540,7 @@
         <v>45783.63148148148</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45597,7 +45597,7 @@
         <v>45783.63800925926</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45654,7 +45654,7 @@
         <v>45783.34505787037</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45716,7 +45716,7 @@
         <v>45784.69828703703</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45778,7 +45778,7 @@
         <v>45784.55241898148</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45840,7 +45840,7 @@
         <v>45785.67780092593</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45902,7 +45902,7 @@
         <v>45789.71915509259</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45959,7 +45959,7 @@
         <v>44721.92605324074</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46016,7 +46016,7 @@
         <v>45789.71949074074</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46073,7 +46073,7 @@
         <v>45789.71967592592</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46130,7 +46130,7 @@
         <v>45446</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46187,7 +46187,7 @@
         <v>45572</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46244,7 +46244,7 @@
         <v>45789</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         <v>45786.51099537037</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46368,7 +46368,7 @@
         <v>45791.65733796296</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46430,7 +46430,7 @@
         <v>45790.34469907408</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46487,7 +46487,7 @@
         <v>44915</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46544,7 +46544,7 @@
         <v>45791.42796296296</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46621,7 +46621,7 @@
         <v>45790.65737268519</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46683,7 +46683,7 @@
         <v>45672</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46740,7 +46740,7 @@
         <v>45793.61495370371</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46802,7 +46802,7 @@
         <v>44603.92236111111</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46859,7 +46859,7 @@
         <v>45258</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46916,7 +46916,7 @@
         <v>44384</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46973,7 +46973,7 @@
         <v>45796.365</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         <v>45548</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47092,7 +47092,7 @@
         <v>45602</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47149,7 +47149,7 @@
         <v>45699.43229166666</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47206,7 +47206,7 @@
         <v>44874.92969907408</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47263,7 +47263,7 @@
         <v>45798.42756944444</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47325,7 +47325,7 @@
         <v>45429</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47382,7 +47382,7 @@
         <v>45511</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47439,7 +47439,7 @@
         <v>45805.6364699074</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47501,7 +47501,7 @@
         <v>45811.6778125</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47563,7 +47563,7 @@
         <v>45580</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>

--- a/Översikt TIMRÅ.xlsx
+++ b/Översikt TIMRÅ.xlsx
@@ -575,7 +575,7 @@
         <v>45924</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45789</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -798,7 +798,7 @@
         <v>45793</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         <v>44809</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45845.65666666667</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>45723.46942129629</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45827</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>45239</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>46065</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>45761</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>45924.51101851852</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>45785.65672453704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45924.51083333333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>45791.57351851852</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>45924.57364583333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45204</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>45786</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>45082.926875</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>45709.44822916666</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>45797.67784722222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>45167</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>45940.38585648148</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>45371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>45215</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>45895</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>45726</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>45429</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>45800</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45569.46905092592</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>45098</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>45915.49065972222</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>45614.38782407407</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>45937</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         <v>45884.34447916667</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>45229</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         <v>45953.34493055556</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>44483.94234953704</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45604.59423611111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>45786</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>45791.59416666667</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>45804.59443287037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44371</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>45867</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>45837.6565625</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44371</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>45866</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>44854</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>45593.65664351852</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>45442</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>45978</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>45743</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>45329</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>45736.34435185185</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>45785.65743055556</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>45786</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>45791.4071875</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>45797</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>45812.57344907407</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>45812.6150462963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>44306</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>44719</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44757.94475694445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>45183</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44860</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>45548</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>45889.55267361111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>45827.3472800926</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>45894.48993055556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>45614.38584490741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>45866</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>45939.37962962963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>45952.69873842593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>45622.69840277778</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>45762.595</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>45191</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>45967.59415509259</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>45561</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>45553.34428240741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>45106</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44830</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>45142</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>45764.38619212963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>45777.36506944444</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>45783.40657407408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>45642</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>45785.40699074074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>45786</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>44316</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>45349</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>45702.61481481481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>45826.63604166666</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>45835.55256944444</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>45837.65688657408</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>45853.34451388889</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>45614.38832175926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>45859</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>44966</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>45953.55266203704</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>45243</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>45614.38761574074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>45751.34609953704</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>45624.67935185185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>45442</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>45656</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>46059</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45250</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>46059</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>45579.59434027778</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44641</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>45785.34451388889</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>45785.65763888889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>45789.71935185185</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>45356</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44641</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>45791.40748842592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>45790</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45791.57354166666</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11580,7 +11580,7 @@
         <v>45791.4278587963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45797.67813657408</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11760,7 +11760,7 @@
         <v>45302</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>45131</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11930,7 +11930,7 @@
         <v>44447.3393287037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11987,7 +11987,7 @@
         <v>44447.94371527778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>44357</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>44315</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44517</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44557</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44833</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44557</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44721</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44447</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44813</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44874.48275462963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44357</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44868</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44789.92700231481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44782</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44524</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>44557</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44607</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>44491</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44522.92057870371</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44363</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44357.3500462963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44371</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44417</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44371</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13432,7 +13432,7 @@
         <v>44874.46287037037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13489,7 +13489,7 @@
         <v>44852.95229166667</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         <v>44453</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>44371</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13670,7 +13670,7 @@
         <v>44798</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13727,7 +13727,7 @@
         <v>44879.9560300926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44511</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44830</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13908,7 +13908,7 @@
         <v>44433.94230324074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13965,7 +13965,7 @@
         <v>44440</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>44712</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>44849</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>44846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44616</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44804</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44799</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>44854</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44845.95347222222</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44887.9284375</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44349</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>44349</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44357</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44860</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44833</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44337.98226851852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44642</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44642</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44725.94373842593</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>44415.93429398148</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>44348</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44790</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44641</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44518</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44364</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44316</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45751.34613425926</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45187</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>44578</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>45610.69864583333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45614.38722222222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>45474</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45261</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>45125</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44629.71497685185</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>45351</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>45642</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>45058</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>45058</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44608</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>45629.35313657407</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44469</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>45617</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>44845</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>45636.44822916666</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>45002</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>45637</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>44909</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>45579.40659722222</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44615</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>45735</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>45029</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>44378</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>44889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>45545.61614583333</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44897</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>45434</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44671.926875</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44566</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44851.953125</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>45460</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>45246</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>45257</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>45625</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>45645.59753472222</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44977.934375</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>45439</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>45394.95059027777</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44494</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>45567.38202546296</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>45544</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18318,7 +18318,7 @@
         <v>45518.74296296296</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18375,7 +18375,7 @@
         <v>45884.55336805555</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>45886.51091435185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>45572.55322916667</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
         <v>45819.67739583334</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18618,7 +18618,7 @@
         <v>45818.34482638889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>45453</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>45819.34549768519</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>45244</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44526</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>45821.39233796296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>45824.71908564815</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>45824.6578125</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>45822.42765046296</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>45888.67773148148</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>45822.42746527777</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>45058.68621527778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>45827.49060185185</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>44334</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>44872</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>45894.65702546296</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>45092</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>45895</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>45821</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>45386.94486111111</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>45394.94991898148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>45831.67759259259</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>45831.66094907407</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>45813</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>45897.34467592592</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>45833.44155092593</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20165,7 +20165,7 @@
         <v>45833.43015046296</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20222,7 +20222,7 @@
         <v>45833.44674768519</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20279,7 +20279,7 @@
         <v>44558</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20336,7 +20336,7 @@
         <v>45764.3653587963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>45833.41020833333</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20455,7 +20455,7 @@
         <v>44826</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>44826.94804398148</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>45614.38810185185</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20636,7 +20636,7 @@
         <v>45614.38815972222</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20698,7 +20698,7 @@
         <v>45898.44824074074</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>45898.42746527777</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20837,7 +20837,7 @@
         <v>45898.44826388889</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20894,7 +20894,7 @@
         <v>45617.61572916667</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>45188</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>45048</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45834.47052083333</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         <v>45903.65372685185</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         <v>45903.61538194444</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>45903.645</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45334</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>45838.36493055556</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>45839.63586805556</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21499,7 +21499,7 @@
         <v>45837.65679398148</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45839.71916666667</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>45904.37346064814</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>45889</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>45837.71907407408</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>45837.69824074074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21866,7 +21866,7 @@
         <v>45907.49268518519</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21923,7 +21923,7 @@
         <v>45840.40680555555</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21980,7 +21980,7 @@
         <v>45755.40678240741</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>45840.40699074074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22094,7 +22094,7 @@
         <v>45201</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22151,7 +22151,7 @@
         <v>45840.48953703704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22208,7 +22208,7 @@
         <v>45840.63600694444</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>45520</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45842.57388888889</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45671.53855324074</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45845.65732638889</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>45915.46614583334</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>45915.49049768518</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>44467</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45915.46914351852</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>45846.34501157407</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>45107</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>45847.42768518518</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>45847.42783564814</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>45596.36559027778</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>45916.40740740741</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>45849.46824074074</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23160,7 +23160,7 @@
         <v>45916.40726851852</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>45833</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44732</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>45614.38622685185</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>45614.38694444444</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>45918.34467592592</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>45244.96715277778</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>45918.36494212963</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>45764.38584490741</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>45855.67744212963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23775,7 +23775,7 @@
         <v>45859.61546296296</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23832,7 +23832,7 @@
         <v>45859.59447916667</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23889,7 +23889,7 @@
         <v>45798</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23946,7 +23946,7 @@
         <v>45716</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24003,7 +24003,7 @@
         <v>45859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>45859.61543981481</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24117,7 +24117,7 @@
         <v>44798.92681712963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24174,7 +24174,7 @@
         <v>45922.34416666667</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24231,7 +24231,7 @@
         <v>45860.34459490741</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24288,7 +24288,7 @@
         <v>45860.34461805555</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>45800.70986111111</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44721</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>45924.42755787037</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>44676</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>45924.42788194444</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>45579.59424768519</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>45861</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>44350</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>45929.48690972223</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24878,7 +24878,7 @@
         <v>45927.34444444445</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>45210</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>45930</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>45671</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>45930</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>45930</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>45930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>45671.53853009259</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>45922</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45622</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>45455</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>45455</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>45877.58502314815</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>45932.5109837963</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25686,7 +25686,7 @@
         <v>45880.57357638889</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>45589.48760416666</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>45880.55261574074</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>45190</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25919,7 +25919,7 @@
         <v>45936.46949074074</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>45867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26063,7 +26063,7 @@
         <v>45882</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26120,7 +26120,7 @@
         <v>45883.46928240741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26177,7 +26177,7 @@
         <v>45939.38305555555</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26234,7 +26234,7 @@
         <v>45938.49212962963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45939.49052083334</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45884.55347222222</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>45695.71903935185</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>45939.61747685185</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>45943.55063657407</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         <v>44952</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>45940.34512731482</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26715,7 +26715,7 @@
         <v>45884</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26772,7 +26772,7 @@
         <v>45182.94908564815</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26834,7 +26834,7 @@
         <v>44889</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26896,7 +26896,7 @@
         <v>45951.34575231482</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26953,7 +26953,7 @@
         <v>45951.34542824074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27010,7 +27010,7 @@
         <v>45950.59730324074</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>45950.62047453703</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27129,7 +27129,7 @@
         <v>45951.36527777778</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         <v>45735.44883101852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         <v>44250</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27305,7 +27305,7 @@
         <v>45951.65715277778</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27362,7 +27362,7 @@
         <v>45951.67846064815</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>45951.34561342592</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>45951.34582175926</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>45950.64591435185</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         <v>44615</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>45953.55248842593</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45952.71978009259</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>45579</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>45952.67783564814</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45952.69902777778</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27957,7 +27957,7 @@
         <v>45952.72013888889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45953.44878472222</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45952.34482638889</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45952.67809027778</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45953.34508101852</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45953</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45957.51130787037</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45762.61503472222</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44522.92043981481</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45590.61517361111</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45954.5725</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45953.80394675926</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>45058.68923611111</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>45058</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>45187.9603587963</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>45960.34491898148</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>45624.67949074074</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45541</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>44846</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>45965.36548611111</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29132,7 +29132,7 @@
         <v>45895</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>44818.9474537037</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>44529.94496527778</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29303,7 +29303,7 @@
         <v>45166</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29360,7 +29360,7 @@
         <v>45971.68888888889</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29417,7 +29417,7 @@
         <v>45624.67894675926</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>45187</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>45580</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>45975.65680555555</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29660,7 +29660,7 @@
         <v>45978.68487268518</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29722,7 +29722,7 @@
         <v>45979.34629629629</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29784,7 +29784,7 @@
         <v>45743.55283564814</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>45733.60231481482</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>45510</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29960,7 +29960,7 @@
         <v>44901</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30017,7 +30017,7 @@
         <v>44732</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30074,7 +30074,7 @@
         <v>45981.57255787037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30131,7 +30131,7 @@
         <v>45981.56496527778</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30188,7 +30188,7 @@
         <v>45163</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30245,7 +30245,7 @@
         <v>44655</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30302,7 +30302,7 @@
         <v>44531</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45982.39275462963</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>44952</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45558</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>45985.42018518518</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45985.44314814815</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30644,7 +30644,7 @@
         <v>45985.47813657407</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30701,7 +30701,7 @@
         <v>45987.5112037037</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>45469</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>45614.38604166666</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30882,7 +30882,7 @@
         <v>45614.3875462963</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30944,7 +30944,7 @@
         <v>44725</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31006,7 +31006,7 @@
         <v>45723.34417824074</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31068,7 +31068,7 @@
         <v>45982</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31125,7 +31125,7 @@
         <v>45629.61498842593</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31187,7 +31187,7 @@
         <v>45635.71917824074</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31249,7 +31249,7 @@
         <v>45915</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31306,7 +31306,7 @@
         <v>46034</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31363,7 +31363,7 @@
         <v>45208</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         <v>45624.67921296296</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31487,7 +31487,7 @@
         <v>46037</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31544,7 +31544,7 @@
         <v>46035</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>46034</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>46036.61560185185</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>45953.4488425926</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31772,7 +31772,7 @@
         <v>46037.56555555556</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>46035</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31886,7 +31886,7 @@
         <v>44880.95756944444</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>45092</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>45231</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>44393</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>46041</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>46041.43841435185</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32233,7 +32233,7 @@
         <v>46041.44077546296</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32290,7 +32290,7 @@
         <v>46041.40667824074</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         <v>46041.44505787037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32404,7 +32404,7 @@
         <v>45586.51078703703</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         <v>46036</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32523,7 +32523,7 @@
         <v>45622</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32580,7 +32580,7 @@
         <v>45182</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>45621.4275462963</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>45188.92491898148</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32761,7 +32761,7 @@
         <v>46001.38648148148</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>46001.38677083333</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32885,7 +32885,7 @@
         <v>46000.34418981482</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32947,7 +32947,7 @@
         <v>45058</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33004,7 +33004,7 @@
         <v>44250</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33061,7 +33061,7 @@
         <v>44250</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33118,7 +33118,7 @@
         <v>45555</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33175,7 +33175,7 @@
         <v>45112.94381944444</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         <v>46006.66931712963</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33294,7 +33294,7 @@
         <v>46006.57925925926</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33351,7 +33351,7 @@
         <v>46033</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33408,7 +33408,7 @@
         <v>46014</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>46049.61578703704</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33532,7 +33532,7 @@
         <v>46007.45199074074</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33589,7 +33589,7 @@
         <v>46049.61560185185</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>45182</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33713,7 +33713,7 @@
         <v>46049.61516203704</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>46049.61542824074</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>46051.57375</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33894,7 +33894,7 @@
         <v>46055.71923611111</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>46013.49018518518</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>46013.49020833334</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>44396</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34127,7 +34127,7 @@
         <v>45646.53160879629</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>46052.49025462963</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34251,7 +34251,7 @@
         <v>45441</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34308,7 +34308,7 @@
         <v>44557</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34365,7 +34365,7 @@
         <v>46054</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34422,7 +34422,7 @@
         <v>45593.53160879629</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>46013.44822916666</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>46013.51077546296</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44893.9297337963</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>46013</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>46052.34430555555</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34774,7 +34774,7 @@
         <v>45435.94592592592</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34836,7 +34836,7 @@
         <v>45918.34475694445</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34898,7 +34898,7 @@
         <v>46057.59460648148</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34955,7 +34955,7 @@
         <v>46057.59456018519</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35012,7 +35012,7 @@
         <v>46057.59458333333</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>46056</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>46056</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>46056</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35240,7 +35240,7 @@
         <v>46051</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35302,7 +35302,7 @@
         <v>45548.41377314815</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35359,7 +35359,7 @@
         <v>46056</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35416,7 +35416,7 @@
         <v>46056</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>45032</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35535,7 +35535,7 @@
         <v>45437</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35597,7 +35597,7 @@
         <v>46044</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35654,7 +35654,7 @@
         <v>46048</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35711,7 +35711,7 @@
         <v>46048</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35768,7 +35768,7 @@
         <v>46048</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35825,7 +35825,7 @@
         <v>45916.36511574074</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35887,7 +35887,7 @@
         <v>44575.92912037037</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35944,7 +35944,7 @@
         <v>45188</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36006,7 +36006,7 @@
         <v>46019.92979166667</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36063,7 +36063,7 @@
         <v>45937.64086805555</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36125,7 +36125,7 @@
         <v>45972.34515046296</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36187,7 +36187,7 @@
         <v>45967.61501157407</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36249,7 +36249,7 @@
         <v>45804</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>45622</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>46059</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>45943.61526620371</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36487,7 +36487,7 @@
         <v>45972.57354166666</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         <v>45985.46954861111</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36611,7 +36611,7 @@
         <v>45916.55245370371</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36673,7 +36673,7 @@
         <v>45058</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36730,7 +36730,7 @@
         <v>45874</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36792,7 +36792,7 @@
         <v>45833.42950231482</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36849,7 +36849,7 @@
         <v>45406</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36911,7 +36911,7 @@
         <v>45937.64094907408</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36973,7 +36973,7 @@
         <v>45972.34539351852</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37035,7 +37035,7 @@
         <v>45593.38608796296</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37097,7 +37097,7 @@
         <v>45446</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37154,7 +37154,7 @@
         <v>45937.42913194445</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37216,7 +37216,7 @@
         <v>45985.47010416666</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>45043</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>45833.42782407408</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37402,7 +37402,7 @@
         <v>46019.94665509259</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         <v>45916.34513888889</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37521,7 +37521,7 @@
         <v>45620.95182870371</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37578,7 +37578,7 @@
         <v>46065.51604166667</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37635,7 +37635,7 @@
         <v>45195</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37692,7 +37692,7 @@
         <v>45189</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37749,7 +37749,7 @@
         <v>46056</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37806,7 +37806,7 @@
         <v>46023</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37863,7 +37863,7 @@
         <v>46041</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37920,7 +37920,7 @@
         <v>45562</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37982,7 +37982,7 @@
         <v>45175.65100694444</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38039,7 +38039,7 @@
         <v>46024</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38096,7 +38096,7 @@
         <v>46065</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38153,7 +38153,7 @@
         <v>46024</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38210,7 +38210,7 @@
         <v>46024</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38267,7 +38267,7 @@
         <v>46066.33487268518</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38324,7 +38324,7 @@
         <v>45618.43747685185</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         <v>46066.35460648148</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38443,7 +38443,7 @@
         <v>46066</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38500,7 +38500,7 @@
         <v>46066.35483796296</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38557,7 +38557,7 @@
         <v>46027.72983796296</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38614,7 +38614,7 @@
         <v>46066.33319444444</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38671,7 +38671,7 @@
         <v>46066.63505787037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38728,7 +38728,7 @@
         <v>46024</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38785,7 +38785,7 @@
         <v>45625</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38842,7 +38842,7 @@
         <v>45117</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         <v>45579.51072916666</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38961,7 +38961,7 @@
         <v>46024</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39018,7 +39018,7 @@
         <v>46024</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39075,7 +39075,7 @@
         <v>46044</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39132,7 +39132,7 @@
         <v>46044</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39189,7 +39189,7 @@
         <v>46027.72607638889</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39246,7 +39246,7 @@
         <v>46066.62140046297</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39303,7 +39303,7 @@
         <v>46065</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39360,7 +39360,7 @@
         <v>46024</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39417,7 +39417,7 @@
         <v>46024</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39474,7 +39474,7 @@
         <v>45761.59958333334</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39531,7 +39531,7 @@
         <v>46056</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39588,7 +39588,7 @@
         <v>44869</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39645,7 +39645,7 @@
         <v>46070.37175925926</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39702,7 +39702,7 @@
         <v>46070.5996875</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39759,7 +39759,7 @@
         <v>45609.34423611111</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>45435</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39903,7 +39903,7 @@
         <v>46035</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39960,7 +39960,7 @@
         <v>46035</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>46029</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40074,7 +40074,7 @@
         <v>46035</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40131,7 +40131,7 @@
         <v>46029.61538194444</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40193,7 +40193,7 @@
         <v>45446</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40250,7 +40250,7 @@
         <v>46072</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40307,7 +40307,7 @@
         <v>46072.36611111111</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40364,7 +40364,7 @@
         <v>45386.94517361111</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40426,7 +40426,7 @@
         <v>46041</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         <v>46029</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40545,7 +40545,7 @@
         <v>46050</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40602,7 +40602,7 @@
         <v>46050</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40659,7 +40659,7 @@
         <v>45103</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40716,7 +40716,7 @@
         <v>46072.36609953704</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40773,7 +40773,7 @@
         <v>46030.55357638889</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40830,7 +40830,7 @@
         <v>46072</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40887,7 +40887,7 @@
         <v>46072</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40944,7 +40944,7 @@
         <v>46029.83921296296</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41001,7 +41001,7 @@
         <v>46029.82388888889</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41058,7 +41058,7 @@
         <v>46029.83471064815</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41115,7 +41115,7 @@
         <v>46029.84521990741</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41172,7 +41172,7 @@
         <v>46072</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41229,7 +41229,7 @@
         <v>46072</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41286,7 +41286,7 @@
         <v>46072</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41343,7 +41343,7 @@
         <v>46072</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41400,7 +41400,7 @@
         <v>46072</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>45579.46957175926</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>44385.43622685185</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>46050</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>45579.46971064815</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41695,7 +41695,7 @@
         <v>46059</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41752,7 +41752,7 @@
         <v>46072</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>46048</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41866,7 +41866,7 @@
         <v>44952</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         <v>45649.61491898148</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41985,7 +41985,7 @@
         <v>44530</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42042,7 +42042,7 @@
         <v>44531.44428240741</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42099,7 +42099,7 @@
         <v>45079</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42161,7 +42161,7 @@
         <v>44616</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45614.3884837963</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42280,7 +42280,7 @@
         <v>45495</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42342,7 +42342,7 @@
         <v>45407</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42404,7 +42404,7 @@
         <v>45344</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42461,7 +42461,7 @@
         <v>44630.92299768519</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42518,7 +42518,7 @@
         <v>45042</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42575,7 +42575,7 @@
         <v>45579.4483912037</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42637,7 +42637,7 @@
         <v>45252</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42694,7 +42694,7 @@
         <v>44869</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42751,7 +42751,7 @@
         <v>44869</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42808,7 +42808,7 @@
         <v>44886</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42865,7 +42865,7 @@
         <v>45656.63576388889</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42927,7 +42927,7 @@
         <v>44420</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42984,7 +42984,7 @@
         <v>45303</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43046,7 +43046,7 @@
         <v>45450</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43103,7 +43103,7 @@
         <v>45370</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43165,7 +43165,7 @@
         <v>44557.43879629629</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43222,7 +43222,7 @@
         <v>45671.57582175926</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43279,7 +43279,7 @@
         <v>44839</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43341,7 +43341,7 @@
         <v>45148</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43398,7 +43398,7 @@
         <v>45495</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43455,7 +43455,7 @@
         <v>45737.5741550926</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43517,7 +43517,7 @@
         <v>45250</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43574,7 +43574,7 @@
         <v>45104</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43631,7 +43631,7 @@
         <v>45411</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43688,7 +43688,7 @@
         <v>44936.92666666667</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43745,7 +43745,7 @@
         <v>44595.92520833333</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43802,7 +43802,7 @@
         <v>45642</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43879,7 +43879,7 @@
         <v>44872</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43936,7 +43936,7 @@
         <v>44924</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43993,7 +43993,7 @@
         <v>45672</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44050,7 +44050,7 @@
         <v>45595</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44112,7 +44112,7 @@
         <v>45749</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44169,7 +44169,7 @@
         <v>45671.51324074074</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         <v>44888.92847222222</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44283,7 +44283,7 @@
         <v>44530</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44340,7 +44340,7 @@
         <v>45614.38864583334</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44402,7 +44402,7 @@
         <v>45614.38878472222</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44464,7 +44464,7 @@
         <v>44952</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44521,7 +44521,7 @@
         <v>45209</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44578,7 +44578,7 @@
         <v>45569.40684027778</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44640,7 +44640,7 @@
         <v>45119</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44697,7 +44697,7 @@
         <v>45099.95390046296</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44759,7 +44759,7 @@
         <v>44895.92809027778</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44816,7 +44816,7 @@
         <v>45560.57388888889</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44878,7 +44878,7 @@
         <v>45769.59504629629</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44940,7 +44940,7 @@
         <v>45569.34474537037</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45002,7 +45002,7 @@
         <v>45762.57328703703</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45059,7 +45059,7 @@
         <v>45622</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45116,7 +45116,7 @@
         <v>45163.92715277777</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45173,7 +45173,7 @@
         <v>45498</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45230,7 +45230,7 @@
         <v>45033</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45292,7 +45292,7 @@
         <v>45761</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45354,7 +45354,7 @@
         <v>45779.69825231482</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45416,7 +45416,7 @@
         <v>45782.59474537037</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45478,7 +45478,7 @@
         <v>45783.34482638889</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45540,7 +45540,7 @@
         <v>45783.63148148148</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45597,7 +45597,7 @@
         <v>45783.63800925926</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45654,7 +45654,7 @@
         <v>45783.34505787037</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45716,7 +45716,7 @@
         <v>45784.69828703703</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45778,7 +45778,7 @@
         <v>45784.55241898148</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45840,7 +45840,7 @@
         <v>45785.67780092593</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45902,7 +45902,7 @@
         <v>45789.71915509259</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45959,7 +45959,7 @@
         <v>44721.92605324074</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46016,7 +46016,7 @@
         <v>45789.71949074074</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46073,7 +46073,7 @@
         <v>45789.71967592592</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46130,7 +46130,7 @@
         <v>45446</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46187,7 +46187,7 @@
         <v>45572</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46244,7 +46244,7 @@
         <v>45789</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         <v>45786.51099537037</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46368,7 +46368,7 @@
         <v>45791.65733796296</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46430,7 +46430,7 @@
         <v>45790.34469907408</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46487,7 +46487,7 @@
         <v>44915</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46544,7 +46544,7 @@
         <v>45791.42796296296</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46621,7 +46621,7 @@
         <v>45790.65737268519</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46683,7 +46683,7 @@
         <v>45672</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46740,7 +46740,7 @@
         <v>45793.61495370371</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46802,7 +46802,7 @@
         <v>44603.92236111111</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46859,7 +46859,7 @@
         <v>45258</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46916,7 +46916,7 @@
         <v>44384</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46973,7 +46973,7 @@
         <v>45796.365</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         <v>45548</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47092,7 +47092,7 @@
         <v>45602</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47149,7 +47149,7 @@
         <v>45699.43229166666</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47206,7 +47206,7 @@
         <v>44874.92969907408</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47263,7 +47263,7 @@
         <v>45798.42756944444</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47325,7 +47325,7 @@
         <v>45429</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47382,7 +47382,7 @@
         <v>45511</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47439,7 +47439,7 @@
         <v>45805.6364699074</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47501,7 +47501,7 @@
         <v>45811.6778125</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47563,7 +47563,7 @@
         <v>45580</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>

--- a/Översikt TIMRÅ.xlsx
+++ b/Översikt TIMRÅ.xlsx
@@ -575,7 +575,7 @@
         <v>45924</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45789</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -798,7 +798,7 @@
         <v>45793</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         <v>44809</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45845.65666666667</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>45723.46942129629</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45827</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>45239</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>46065</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>45761</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>45924.51101851852</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>45785.65672453704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45924.51083333333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>45791.57351851852</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>45924.57364583333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45204</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>45786</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>45082.926875</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>45709.44822916666</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>45797.67784722222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>45726</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>45215</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>45940.38585648148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>45895</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>45167</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>45429</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>45800</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45804.59443287037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>45884.34447916667</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>45614.38782407407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44483.94234953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>45915.49065972222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>45937</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>45953.34493055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         <v>45098</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>45569.46905092592</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45229</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>45604.59423611111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>45786</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>45791.59416666667</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44854</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>44371</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>45812.57344907407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>45812.6150462963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>45867</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>45593.65664351852</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>45837.6565625</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>44371</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>45866</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>45329</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>45978</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>45743</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>45736.34435185185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>45442</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>45786</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>45785.65743055556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>45791.4071875</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>45797</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>44306</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>44719</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44757.94475694445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44830</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>45106</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>45889.55267361111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>45191</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>45894.48993055556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>45827.3472800926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45553.34428240741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45614.38584490741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>45142</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>45183</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>45866</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>45939.37962962963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>45764.38619212963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>44860</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>45952.69873842593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>45622.69840277778</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>45967.59415509259</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>45561</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
         <v>45548</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45762.595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>45777.36506944444</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>45783.40657407408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>45642</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>45786</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>45785.40699074074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>44316</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>45702.61481481481</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44966</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>45131</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9167,7 +9167,7 @@
         <v>45624.67935185185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>45826.63604166666</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>45837.65688657408</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>45835.55256944444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>45614.38832175926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>45853.34451388889</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>45859</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>45953.55266203704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>44641</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>45751.34609953704</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>45656</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>46059</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>45250</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>45442</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>46059</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>45579.59434027778</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>45349</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>44889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>45614.38761574074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>45243</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>45785.34451388889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>45785.65763888889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11136,7 +11136,7 @@
         <v>44641</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>45790</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>45356</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>45789.71935185185</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>45791.4278587963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>45791.40748842592</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>45791.57354166666</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>45302</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>45797.67813657408</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11930,7 +11930,7 @@
         <v>44447.3393287037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11987,7 +11987,7 @@
         <v>44447.94371527778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>44357</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>44315</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44517</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44557</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44833</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44557</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44721</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44447</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44813</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44874.48275462963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44868</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44357</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44789.92700231481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44782</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44524</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>44557</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44607</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>44522.92057870371</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44363</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44357.3500462963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44491</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44371</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44371</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13375,7 +13375,7 @@
         <v>44417</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13432,7 +13432,7 @@
         <v>44874.46287037037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13489,7 +13489,7 @@
         <v>44453</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         <v>44852.95229166667</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>44371</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13670,7 +13670,7 @@
         <v>44798</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13727,7 +13727,7 @@
         <v>44879.9560300926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44511</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44830</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13908,7 +13908,7 @@
         <v>44433.94230324074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13965,7 +13965,7 @@
         <v>44440</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>44712</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>44849</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>44846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44616</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44804</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44799</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>44854</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44845.95347222222</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44887.9284375</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44349</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>44349</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44357</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44860</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44833</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44337.98226851852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44642</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44642</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44725.94373842593</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>44348</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>44415.93429398148</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44641</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44790</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44518</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44364</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44798.92681712963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45058</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>45334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45043</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>45092</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>45434</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>45250</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>44952</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>44467</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>45437</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16134,7 +16134,7 @@
         <v>45545.61614583333</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>44420</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>44839</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44886</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>45435</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>45518.74296296296</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         <v>44531</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16543,7 +16543,7 @@
         <v>45620.95182870371</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16600,7 +16600,7 @@
         <v>45498</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16657,7 +16657,7 @@
         <v>45469</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44869</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>45446</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44396</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>45033</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44880.95756944444</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>45303</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44889</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>45439</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44872</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44530</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44531.44428240741</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>45884.55336805555</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>45884</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>45884.55347222222</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44889</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>45406</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>45805.6364699074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>45883.46928240741</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>45821.39233796296</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>45888.67773148148</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>45580</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>45886.51091435185</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>45555</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>45544</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>45351</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44557.43879629629</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44888.92847222222</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45811.6778125</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>45743.55283564814</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18494,7 +18494,7 @@
         <v>45182</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
         <v>45671.53855324074</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>45624.67921296296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18675,7 +18675,7 @@
         <v>45032</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>45818.34482638889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>45649.61491898148</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>45894.65702546296</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>45813</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>45821</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>45819.34549768519</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>45819.67739583334</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>45824.6578125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44630.92299768519</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>45822.42746527777</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>45614.3884837963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>45824.71908564815</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>45579.51072916666</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>45822.42765046296</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19585,7 +19585,7 @@
         <v>44893.9297337963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19642,7 +19642,7 @@
         <v>45572.55322916667</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         <v>45895</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         <v>45898.44826388889</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>45898.44824074074</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44676</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>45560.57388888889</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>45898.42746527777</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>45897.34467592592</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>45827.49060185185</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45579.46971064815</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>44977.934375</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>45831.66094907407</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>45446</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>45386.94517361111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45769.59504629629</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>45904.37346064814</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20609,7 +20609,7 @@
         <v>45903.65372685185</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20666,7 +20666,7 @@
         <v>45831.67759259259</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         <v>45903.61538194444</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>45903.645</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>45569.40684027778</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>45833.44155092593</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>45833.41020833333</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45833.43015046296</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45833.44674768519</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>45889</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         <v>45907.49268518519</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45182</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45834.47052083333</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45837.65679398148</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45622</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21499,7 +21499,7 @@
         <v>44952</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         <v>44952</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
         <v>45837.71907407408</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45838.36493055556</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>45837.69824074074</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>45840.63600694444</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>45840.40699074074</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>45840.40680555555</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>45839.63586805556</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>45840.48953703704</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22094,7 +22094,7 @@
         <v>45614.38604166666</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>45614.3875462963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>45569.34474537037</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22280,7 +22280,7 @@
         <v>45839.71916666667</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22342,7 +22342,7 @@
         <v>45579.40659722222</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22404,7 +22404,7 @@
         <v>45842.57388888889</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22461,7 +22461,7 @@
         <v>45624.67949074074</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22523,7 +22523,7 @@
         <v>45636.44822916666</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
         <v>45846.34501157407</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>45614.38622685185</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22709,7 +22709,7 @@
         <v>45614.38694444444</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         <v>45625</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22828,7 +22828,7 @@
         <v>45845.65732638889</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>45618.43747685185</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>45642</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>45671.57582175926</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>45847.42768518518</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>45847.42783564814</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>45849.46824074074</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>45915.46614583334</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>45915.46914351852</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>44469</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>45833</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>45610.69864583333</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>45916.40740740741</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>45915.49049768518</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         <v>44522.92043981481</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23718,7 +23718,7 @@
         <v>45855.67744212963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>45916.40726851852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>45860.34459490741</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>45860.34461805555</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>45104</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>45859.59447916667</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>45918.34467592592</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>45918.36494212963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24194,7 +24194,7 @@
         <v>44334</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
         <v>45798</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24308,7 +24308,7 @@
         <v>45453</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>45859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>45859.61543981481</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>45859.61546296296</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>45800.70986111111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>45210</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>45637</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>45455</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>44350</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>45922.34416666667</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>45924.42755787037</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24945,7 +24945,7 @@
         <v>45635.71917824074</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>45924.42788194444</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>45723.34417824074</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44316</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>45861</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>45930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>45930</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>44393</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>45929.48690972223</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>45930</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>45927.34444444445</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>45930</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>45922</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>45187</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         <v>45510</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25825,7 +25825,7 @@
         <v>45932.5109837963</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25887,7 +25887,7 @@
         <v>44851.953125</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25949,7 +25949,7 @@
         <v>45880.55261574074</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26006,7 +26006,7 @@
         <v>45880.57357638889</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26063,7 +26063,7 @@
         <v>45877.58502314815</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26120,7 +26120,7 @@
         <v>45867</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>45882</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>45764.3653587963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>44845</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>45671</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>44846</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>45936.46949074074</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26559,7 +26559,7 @@
         <v>44385.43622685185</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26616,7 +26616,7 @@
         <v>44529.94496527778</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26673,7 +26673,7 @@
         <v>45755.40678240741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26730,7 +26730,7 @@
         <v>45938.49212962963</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>45586.51078703703</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>45079</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>45940.34512731482</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>45624.67894675926</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>45737.5741550926</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>45175.65100694444</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>45939.49052083334</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>45939.38305555555</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45939.61747685185</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45764.38584490741</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>45943.55063657407</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44616</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>45735.44883101852</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>45751.34613425926</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27635,7 +27635,7 @@
         <v>45590.61517361111</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27692,7 +27692,7 @@
         <v>45163</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27749,7 +27749,7 @@
         <v>44895.92809027778</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44909</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>45735</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27925,7 +27925,7 @@
         <v>45950.59730324074</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44872</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>45950.62047453703</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>45950.64591435185</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28158,7 +28158,7 @@
         <v>45952.69902777778</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>45952.72013888889</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28282,7 +28282,7 @@
         <v>45951.36527777778</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>45209</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28396,7 +28396,7 @@
         <v>45951.67846064815</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>45951.34582175926</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>45951.34575231482</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>44869</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         <v>44869</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>45952.67809027778</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28743,7 +28743,7 @@
         <v>45951.65715277778</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28800,7 +28800,7 @@
         <v>45951.34542824074</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28857,7 +28857,7 @@
         <v>45951.34561342592</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28914,7 +28914,7 @@
         <v>45952.67783564814</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28971,7 +28971,7 @@
         <v>45952.71978009259</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>45952.34482638889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>45953.80394675926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>45954.5725</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>45953.34508101852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         <v>45953</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>45953.55248842593</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29385,7 +29385,7 @@
         <v>45953.44878472222</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29442,7 +29442,7 @@
         <v>45092</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29499,7 +29499,7 @@
         <v>45761.59958333334</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29556,7 +29556,7 @@
         <v>45394.94991898148</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>45103</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>45957.51130787037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>44526</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>45344</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>45656.63576388889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         <v>45960.34491898148</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29970,7 +29970,7 @@
         <v>45895</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30027,7 +30027,7 @@
         <v>45257</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30089,7 +30089,7 @@
         <v>45107</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         <v>45965.36548611111</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30208,7 +30208,7 @@
         <v>44558</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30265,7 +30265,7 @@
         <v>45971.68888888889</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30322,7 +30322,7 @@
         <v>45455</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30379,7 +30379,7 @@
         <v>45614.38864583334</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30441,7 +30441,7 @@
         <v>45614.38878472222</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30503,7 +30503,7 @@
         <v>44732</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30560,7 +30560,7 @@
         <v>45029</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30617,7 +30617,7 @@
         <v>45596.36559027778</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30679,7 +30679,7 @@
         <v>45975.65680555555</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>45978.68487268518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>45593.38608796296</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>45595</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44494</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>45182.94908564815</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31046,7 +31046,7 @@
         <v>45125</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>45979.34629629629</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31170,7 +31170,7 @@
         <v>45981.56496527778</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31227,7 +31227,7 @@
         <v>45981.57255787037</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31284,7 +31284,7 @@
         <v>44575.92912037037</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31341,7 +31341,7 @@
         <v>45450</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31398,7 +31398,7 @@
         <v>45460</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31455,7 +31455,7 @@
         <v>45166</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31512,7 +31512,7 @@
         <v>45982.39275462963</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31569,7 +31569,7 @@
         <v>45580</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31626,7 +31626,7 @@
         <v>45593.53160879629</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31688,7 +31688,7 @@
         <v>45558</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31745,7 +31745,7 @@
         <v>45622</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31802,7 +31802,7 @@
         <v>45985.42018518518</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31859,7 +31859,7 @@
         <v>45985.44314814815</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31916,7 +31916,7 @@
         <v>44557</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31973,7 +31973,7 @@
         <v>45985.47813657407</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32030,7 +32030,7 @@
         <v>45987.5112037037</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32087,7 +32087,7 @@
         <v>45187</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32149,7 +32149,7 @@
         <v>44578</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32206,7 +32206,7 @@
         <v>45982</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32263,7 +32263,7 @@
         <v>45915</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32320,7 +32320,7 @@
         <v>45148</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32377,7 +32377,7 @@
         <v>45953.4488425926</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32434,7 +32434,7 @@
         <v>45579.59424768519</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>46041.40667824074</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32553,7 +32553,7 @@
         <v>46041.43841435185</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32610,7 +32610,7 @@
         <v>46041.44077546296</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>45617</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>46000.34418981482</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         <v>45567.38202546296</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>46041</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>45058.68621527778</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>46041.44505787037</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>45386.94486111111</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>45646.53160879629</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33143,7 +33143,7 @@
         <v>45629.61498842593</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>44608</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33267,7 +33267,7 @@
         <v>44615</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33324,7 +33324,7 @@
         <v>44615</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         <v>46001.38648148148</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33443,7 +33443,7 @@
         <v>46001.38677083333</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33505,7 +33505,7 @@
         <v>45163.92715277777</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33562,7 +33562,7 @@
         <v>45117</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33619,7 +33619,7 @@
         <v>45495</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33681,7 +33681,7 @@
         <v>45231</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33738,7 +33738,7 @@
         <v>45208</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33800,7 +33800,7 @@
         <v>44732</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33862,7 +33862,7 @@
         <v>46006.66931712963</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33919,7 +33919,7 @@
         <v>46006.57925925926</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33976,7 +33976,7 @@
         <v>45112.94381944444</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34038,7 +34038,7 @@
         <v>45441</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34095,7 +34095,7 @@
         <v>46049.61516203704</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>46049.61542824074</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         <v>46007.45199074074</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34276,7 +34276,7 @@
         <v>46014</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34338,7 +34338,7 @@
         <v>45435.94592592592</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34400,7 +34400,7 @@
         <v>46049.61560185185</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34462,7 +34462,7 @@
         <v>46049.61578703704</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45695.71903935185</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34586,7 +34586,7 @@
         <v>46052.34430555555</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34648,7 +34648,7 @@
         <v>46051.57375</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34705,7 +34705,7 @@
         <v>46052.49025462963</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34767,7 +34767,7 @@
         <v>46055.71923611111</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34829,7 +34829,7 @@
         <v>46013.51077546296</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34886,7 +34886,7 @@
         <v>46051</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34948,7 +34948,7 @@
         <v>46054</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35005,7 +35005,7 @@
         <v>45189</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35062,7 +35062,7 @@
         <v>46013.44822916666</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35119,7 +35119,7 @@
         <v>46013.49018518518</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35176,7 +35176,7 @@
         <v>46013.49020833334</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35233,7 +35233,7 @@
         <v>44901</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35290,7 +35290,7 @@
         <v>45918.34475694445</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>46013</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35409,7 +35409,7 @@
         <v>44671.926875</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35466,7 +35466,7 @@
         <v>46056</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35523,7 +35523,7 @@
         <v>46056</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>46056</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35637,7 +35637,7 @@
         <v>46056</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>46056</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35751,7 +35751,7 @@
         <v>46057.59456018519</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35808,7 +35808,7 @@
         <v>44721</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35870,7 +35870,7 @@
         <v>46057.59460648148</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35927,7 +35927,7 @@
         <v>46057.59458333333</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35984,7 +35984,7 @@
         <v>46019.92979166667</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36041,7 +36041,7 @@
         <v>45244.96715277778</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36103,7 +36103,7 @@
         <v>46048</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36160,7 +36160,7 @@
         <v>45972.34515046296</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36222,7 +36222,7 @@
         <v>45943.61526620371</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36284,7 +36284,7 @@
         <v>45749</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36341,7 +36341,7 @@
         <v>45833.42782407408</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36403,7 +36403,7 @@
         <v>45985.46954861111</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36465,7 +36465,7 @@
         <v>45874</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36527,7 +36527,7 @@
         <v>45804</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>46048</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>45937.42913194445</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36708,7 +36708,7 @@
         <v>45972.57354166666</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36770,7 +36770,7 @@
         <v>46019.94665509259</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36827,7 +36827,7 @@
         <v>45937.64094907408</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36889,7 +36889,7 @@
         <v>45833.42950231482</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         <v>45985.47010416666</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37008,7 +37008,7 @@
         <v>45671.53853009259</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37065,7 +37065,7 @@
         <v>45916.36511574074</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37127,7 +37127,7 @@
         <v>45937.64086805555</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37189,7 +37189,7 @@
         <v>45967.61501157407</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37251,7 +37251,7 @@
         <v>45972.34539351852</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37313,7 +37313,7 @@
         <v>45916.55245370371</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37375,7 +37375,7 @@
         <v>45916.34513888889</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37437,7 +37437,7 @@
         <v>46048</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37494,7 +37494,7 @@
         <v>46044</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37551,7 +37551,7 @@
         <v>46059</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37608,7 +37608,7 @@
         <v>45188</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37670,7 +37670,7 @@
         <v>45370</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37732,7 +37732,7 @@
         <v>46041</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37789,7 +37789,7 @@
         <v>46066.33487268518</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
         <v>46024</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37903,7 +37903,7 @@
         <v>46066.63505787037</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37960,7 +37960,7 @@
         <v>46023</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>46024</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38074,7 +38074,7 @@
         <v>46024</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38131,7 +38131,7 @@
         <v>46024</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38188,7 +38188,7 @@
         <v>46024</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38245,7 +38245,7 @@
         <v>46065</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38302,7 +38302,7 @@
         <v>46066.33319444444</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38359,7 +38359,7 @@
         <v>46024</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38416,7 +38416,7 @@
         <v>46024</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38473,7 +38473,7 @@
         <v>46024</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38530,7 +38530,7 @@
         <v>44595.92520833333</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38587,7 +38587,7 @@
         <v>46065</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38644,7 +38644,7 @@
         <v>46056</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38701,7 +38701,7 @@
         <v>46066.62140046297</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38758,7 +38758,7 @@
         <v>46066.35460648148</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38815,7 +38815,7 @@
         <v>46044</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38872,7 +38872,7 @@
         <v>46044</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38929,7 +38929,7 @@
         <v>46056</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38986,7 +38986,7 @@
         <v>44826</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         <v>44826.94804398148</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39105,7 +39105,7 @@
         <v>46027.72607638889</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39162,7 +39162,7 @@
         <v>45261</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39219,7 +39219,7 @@
         <v>46027.72983796296</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39276,7 +39276,7 @@
         <v>46070.37175925926</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39333,7 +39333,7 @@
         <v>46066</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39390,7 +39390,7 @@
         <v>46070.5996875</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39447,7 +39447,7 @@
         <v>46029.83921296296</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39504,7 +39504,7 @@
         <v>46029</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39561,7 +39561,7 @@
         <v>45495</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39618,7 +39618,7 @@
         <v>46072.36609953704</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39675,7 +39675,7 @@
         <v>46029.82388888889</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39732,7 +39732,7 @@
         <v>45541</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39789,7 +39789,7 @@
         <v>46029.61538194444</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39851,7 +39851,7 @@
         <v>46030.55357638889</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39908,7 +39908,7 @@
         <v>46072.36611111111</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39965,7 +39965,7 @@
         <v>46029.83471064815</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40022,7 +40022,7 @@
         <v>46029.84521990741</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40079,7 +40079,7 @@
         <v>46072</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40136,7 +40136,7 @@
         <v>46072</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40193,7 +40193,7 @@
         <v>46072</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40250,7 +40250,7 @@
         <v>46072</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40307,7 +40307,7 @@
         <v>45244</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40364,7 +40364,7 @@
         <v>46029</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40426,7 +40426,7 @@
         <v>46072</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         <v>46072</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40540,7 +40540,7 @@
         <v>46033</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40597,7 +40597,7 @@
         <v>46034</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40654,7 +40654,7 @@
         <v>45671.51324074074</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40711,7 +40711,7 @@
         <v>46034</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40768,7 +40768,7 @@
         <v>46035</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40825,7 +40825,7 @@
         <v>45733.60231481482</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>45622</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>46065</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>45520</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41058,7 +41058,7 @@
         <v>46036</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41115,7 +41115,7 @@
         <v>46035</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41172,7 +41172,7 @@
         <v>44629.71497685185</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41229,7 +41229,7 @@
         <v>46035</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41286,7 +41286,7 @@
         <v>44566</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41348,7 +41348,7 @@
         <v>46078.64</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41405,7 +41405,7 @@
         <v>46036.61560185185</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41462,7 +41462,7 @@
         <v>45099.95390046296</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41524,7 +41524,7 @@
         <v>44378</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41581,7 +41581,7 @@
         <v>46078.62547453704</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41638,7 +41638,7 @@
         <v>46035</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41695,7 +41695,7 @@
         <v>46035</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41752,7 +41752,7 @@
         <v>46066</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>46037.56555555556</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41866,7 +41866,7 @@
         <v>46079.51082175926</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         <v>46079.47372685185</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41980,7 +41980,7 @@
         <v>46079</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42037,7 +42037,7 @@
         <v>46050</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42094,7 +42094,7 @@
         <v>46050</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42151,7 +42151,7 @@
         <v>46079.46909722222</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42208,7 +42208,7 @@
         <v>46076</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42265,7 +42265,7 @@
         <v>46076</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42322,7 +42322,7 @@
         <v>46037</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42379,7 +42379,7 @@
         <v>46072</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42436,7 +42436,7 @@
         <v>46072</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42493,7 +42493,7 @@
         <v>46079</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42550,7 +42550,7 @@
         <v>46079.48993055556</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42607,7 +42607,7 @@
         <v>46041</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42664,7 +42664,7 @@
         <v>46048</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42721,7 +42721,7 @@
         <v>46059</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42778,7 +42778,7 @@
         <v>46072</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42835,7 +42835,7 @@
         <v>46050</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42892,7 +42892,7 @@
         <v>46077</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42949,7 +42949,7 @@
         <v>46079.65716435185</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43011,7 +43011,7 @@
         <v>45042</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43068,7 +43068,7 @@
         <v>45645.59753472222</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43125,7 +43125,7 @@
         <v>44530</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43182,7 +43182,7 @@
         <v>44655</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43239,7 +43239,7 @@
         <v>45195</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43296,7 +43296,7 @@
         <v>45252</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43353,7 +43353,7 @@
         <v>45562</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43415,7 +43415,7 @@
         <v>45762.61503472222</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43472,7 +43472,7 @@
         <v>45579</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43534,7 +43534,7 @@
         <v>45187.9603587963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43596,7 +43596,7 @@
         <v>44952</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43653,7 +43653,7 @@
         <v>45762.57328703703</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43710,7 +43710,7 @@
         <v>45609.34423611111</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43792,7 +43792,7 @@
         <v>45188.92491898148</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43849,7 +43849,7 @@
         <v>44936.92666666667</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         <v>45672</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43963,7 +43963,7 @@
         <v>45622</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44020,7 +44020,7 @@
         <v>45411</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44077,7 +44077,7 @@
         <v>45614.38722222222</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44139,7 +44139,7 @@
         <v>45614.38810185185</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44201,7 +44201,7 @@
         <v>45614.38815972222</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44263,7 +44263,7 @@
         <v>45617.61572916667</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44325,7 +44325,7 @@
         <v>44728</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44382,7 +44382,7 @@
         <v>45188</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44444,7 +44444,7 @@
         <v>45394.95059027777</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>45589.48760416666</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>45474</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>45048</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44682,7 +44682,7 @@
         <v>44725</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44744,7 +44744,7 @@
         <v>45579.4483912037</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44806,7 +44806,7 @@
         <v>45579.46957175926</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44868,7 +44868,7 @@
         <v>45246</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44925,7 +44925,7 @@
         <v>45190</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44987,7 +44987,7 @@
         <v>45119</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45044,7 +45044,7 @@
         <v>45002</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         <v>45058</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45163,7 +45163,7 @@
         <v>45058.68923611111</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45220,7 +45220,7 @@
         <v>45201</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45277,7 +45277,7 @@
         <v>45058</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45334,7 +45334,7 @@
         <v>44924</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45391,7 +45391,7 @@
         <v>45716</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45448,7 +45448,7 @@
         <v>45625</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45505,7 +45505,7 @@
         <v>44818.9474537037</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45562,7 +45562,7 @@
         <v>45621.4275462963</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45624,7 +45624,7 @@
         <v>45548.41377314815</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45681,7 +45681,7 @@
         <v>45629.35313657407</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45738,7 +45738,7 @@
         <v>45407</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45800,7 +45800,7 @@
         <v>45058</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45857,7 +45857,7 @@
         <v>45058</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45914,7 +45914,7 @@
         <v>45642</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45991,7 +45991,7 @@
         <v>45761</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         <v>45782.59474537037</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46115,7 +46115,7 @@
         <v>45779.69825231482</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46177,7 +46177,7 @@
         <v>45783.34482638889</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46239,7 +46239,7 @@
         <v>45784.69828703703</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46301,7 +46301,7 @@
         <v>45783.63800925926</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46358,7 +46358,7 @@
         <v>45783.34505787037</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46420,7 +46420,7 @@
         <v>45784.55241898148</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46482,7 +46482,7 @@
         <v>45783.63148148148</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46539,7 +46539,7 @@
         <v>45446</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46596,7 +46596,7 @@
         <v>44721.92605324074</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46653,7 +46653,7 @@
         <v>45785.67780092593</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46715,7 +46715,7 @@
         <v>45572</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46772,7 +46772,7 @@
         <v>45786.51099537037</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46834,7 +46834,7 @@
         <v>45789.71949074074</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         <v>45789.71967592592</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46948,7 +46948,7 @@
         <v>45789</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47010,7 +47010,7 @@
         <v>45789.71915509259</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47067,7 +47067,7 @@
         <v>45790.34469907408</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47124,7 +47124,7 @@
         <v>45790.65737268519</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         <v>45791.65733796296</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>44915</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47305,7 +47305,7 @@
         <v>45791.42796296296</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47382,7 +47382,7 @@
         <v>45672</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47439,7 +47439,7 @@
         <v>45793.61495370371</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47501,7 +47501,7 @@
         <v>44603.92236111111</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47558,7 +47558,7 @@
         <v>45699.43229166666</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47615,7 +47615,7 @@
         <v>45548</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47672,7 +47672,7 @@
         <v>45796.365</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47734,7 +47734,7 @@
         <v>45602</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>45258</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47848,7 +47848,7 @@
         <v>44384</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47905,7 +47905,7 @@
         <v>45511</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47962,7 +47962,7 @@
         <v>44874.92969907408</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48019,7 +48019,7 @@
         <v>45798.42756944444</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48081,7 +48081,7 @@
         <v>45429</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
